--- a/项目总表.xlsx
+++ b/项目总表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Work/work_info/产品/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Work/work_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-400" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5099" uniqueCount="396">
   <si>
     <t>币的简写</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5816,99 +5816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上个版本</t>
-    <rPh sb="0" eb="1">
-      <t>h</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wh</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>thgc</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>sg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 价格支持逗号输入
-2. 英文版
-3. 公告、新闻资讯页面增加分页按钮
-4. 币币交易</t>
-    <rPh sb="3" eb="4">
-      <t>wwj</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>stk</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fc</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>rff</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gku</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>kgn</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>lwg</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ty</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>amd</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yyg</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>thgc</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>tmh</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>tmh</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>uq</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>jqr</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. app 添加钱包地址增加二维码
-2. app 虚拟币转入，增加保存二维码
-3. 活动页面设计
-4. 设置免手续用户的功能</t>
-    <rPh sb="43" eb="44">
-      <t>itd</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>fcl</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>dmu</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>dm</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ymc</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>yf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量最小成交限额</t>
     <rPh sb="0" eb="1">
       <t>ovt</t>
@@ -5990,42 +5897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 会员等级
-2. 谷歌GA优化
-3. app改版</t>
-    <rPh sb="3" eb="4">
-      <t>wf</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>km</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tffu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xe</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wwk</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>sks</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wdn</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>wx</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>nty</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>thgc</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BB站</t>
     <rPh sb="2" eb="3">
       <t>uh</t>
@@ -6033,112 +5904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. app个人认证
-2. 照片压缩问题
-3. 海外用户上传照片</t>
-    <rPh sb="6" eb="7">
-      <t>wh</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>w</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yw</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ygh</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>jvk</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>thg</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>dfy</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xpw</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ukjg</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>itx</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>qh</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>et</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>yne</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>h</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>wfny</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>jvk</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>thg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 网站改版
-2. app改版
-3. 币币交易
-4. 综合门户</t>
-    <rPh sb="3" eb="4">
-      <t>mqq</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>uh</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>nty</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>thgc</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>nty</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>thgc</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>tmh</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>tmh</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>uq</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>jqr</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>xpf</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>uyh</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>yne</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OMG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6240,6 +6005,16 @@
   </si>
   <si>
     <t>ENTCash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高</t>
+    <rPh sb="0" eb="1">
+      <t>jb</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ym</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6531,12 +6306,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -6676,13 +6451,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6916,7 +6728,6 @@
     <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -6941,8 +6752,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6953,40 +6767,13 @@
     <xf numFmtId="0" fontId="8" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7001,11 +6788,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7022,23 +6818,23 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7049,29 +6845,83 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7374,347 +7224,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="27" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="27" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="31" style="27" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="27"/>
+    <col min="3" max="4" width="31" style="27" customWidth="1"/>
+    <col min="5" max="6" width="33.83203125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="97" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
       <c r="D1" s="97"/>
       <c r="E1" s="97"/>
-    </row>
-    <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+    </row>
+    <row r="2" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" s="101"/>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="145" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="99"/>
       <c r="B3" s="85" t="s">
         <v>361</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>374</v>
-      </c>
-      <c r="D3" s="86" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="E3" s="86" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="102" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="107"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="108"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="108"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="102"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="108"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="102"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="108"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="148"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="96"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="149"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="149"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="96"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="149"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="96"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="149"/>
+    </row>
+    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="98" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" s="137"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="149"/>
+    </row>
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="131"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="149"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="131"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="149"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="131"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="149"/>
+    </row>
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="99"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="149"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="B9" s="103" t="s">
-        <v>368</v>
-      </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="104" t="s">
-        <v>378</v>
-      </c>
-      <c r="E9" s="108"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="108"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="108"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="108"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="108"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="102"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="108"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="108"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="108"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="102"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="108"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="108"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="102" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="149"/>
+    </row>
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="131"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="149"/>
+    </row>
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="131"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="149"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="131"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="149"/>
+    </row>
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="99"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="149"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="B19" s="110" t="s">
-        <v>369</v>
-      </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="108"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="108"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="102"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="108"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="102"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="108"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="102"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="108"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="102"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="108"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="108"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="102"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="108"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="102"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="108"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="102"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="108"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="102" t="s">
+      <c r="B19" s="140"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="149"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="131"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="149"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="131"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="149"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="131"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="149"/>
+    </row>
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="99"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="149"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="98" t="s">
         <v>366</v>
       </c>
-      <c r="B29" s="96" t="s">
-        <v>376</v>
-      </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="96" t="s">
-        <v>379</v>
-      </c>
-      <c r="E29" s="108"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="102"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="108"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="102"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="108"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="102"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="108"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="102"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="108"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="102"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="108"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="102"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="108"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="108"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="102"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="108"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="102"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="109"/>
-    </row>
-    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
-        <v>367</v>
-      </c>
+      <c r="B24" s="137"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="149"/>
+    </row>
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="131"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="149"/>
+    </row>
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="131"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="149"/>
+    </row>
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="131"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="149"/>
+    </row>
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="99"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="149"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="D29:D38"/>
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="23">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F4:F28"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D4:D28"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C28"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="D9:D18"/>
-    <mergeCell ref="E4:E38"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="G4:G28"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7725,7 +7555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7813,19 +7643,19 @@
         <v>117</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>11</v>
@@ -7893,16 +7723,16 @@
         <v>11</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="U2" s="88" t="s">
-        <v>389</v>
+        <v>380</v>
+      </c>
+      <c r="U2" s="87" t="s">
+        <v>383</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>11</v>
@@ -7967,17 +7797,17 @@
       <c r="S3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="90" t="s">
-        <v>387</v>
-      </c>
-      <c r="U3" s="89" t="s">
-        <v>390</v>
+      <c r="T3" s="89" t="s">
+        <v>381</v>
+      </c>
+      <c r="U3" s="88" t="s">
+        <v>384</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>11</v>
@@ -8042,19 +7872,19 @@
         <v>120</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="U4" s="88" t="s">
-        <v>389</v>
+        <v>380</v>
+      </c>
+      <c r="U4" s="87" t="s">
+        <v>383</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>11</v>
@@ -8196,18 +8026,18 @@
         <v>11</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="V6" s="91">
+        <v>387</v>
+      </c>
+      <c r="V6" s="90">
         <v>43091</v>
       </c>
-      <c r="W6" s="91">
+      <c r="W6" s="90">
         <v>43093</v>
       </c>
       <c r="X6" s="7" t="s">
@@ -8350,18 +8180,18 @@
         <v>11</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="T8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="V8" s="92">
+        <v>386</v>
+      </c>
+      <c r="V8" s="91">
         <v>43091</v>
       </c>
-      <c r="W8" s="92">
+      <c r="W8" s="91">
         <v>43093</v>
       </c>
       <c r="X8" s="8" t="s">
@@ -8435,10 +8265,10 @@
       <c r="U9" s="8">
         <v>1E-3</v>
       </c>
-      <c r="V9" s="93">
+      <c r="V9" s="92">
         <v>1E-3</v>
       </c>
-      <c r="W9" s="93">
+      <c r="W9" s="92">
         <v>1E-3</v>
       </c>
       <c r="X9" s="8" t="s">
@@ -8512,10 +8342,10 @@
       <c r="U10" s="8">
         <v>1E-3</v>
       </c>
-      <c r="V10" s="93">
+      <c r="V10" s="92">
         <v>1E-3</v>
       </c>
-      <c r="W10" s="93">
+      <c r="W10" s="92">
         <v>1E-3</v>
       </c>
       <c r="X10" s="8" t="s">
@@ -8851,13 +8681,13 @@
         <v>11</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="T15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="V15" s="9" t="s">
         <v>11</v>
@@ -9071,7 +8901,7 @@
     </row>
     <row r="19" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -9164,10 +8994,10 @@
       <c r="U20" s="43">
         <v>0</v>
       </c>
-      <c r="V20" s="94">
+      <c r="V20" s="93">
         <v>0</v>
       </c>
-      <c r="W20" s="95">
+      <c r="W20" s="94">
         <v>0</v>
       </c>
       <c r="X20" s="11" t="s">
@@ -9241,10 +9071,10 @@
       <c r="U21" s="43">
         <v>0</v>
       </c>
-      <c r="V21" s="94">
+      <c r="V21" s="93">
         <v>0</v>
       </c>
-      <c r="W21" s="95">
+      <c r="W21" s="94">
         <v>0</v>
       </c>
       <c r="X21" s="11" t="s">
@@ -9318,10 +9148,10 @@
       <c r="U22" s="43">
         <v>7000</v>
       </c>
-      <c r="V22" s="95">
+      <c r="V22" s="94">
         <v>3500</v>
       </c>
-      <c r="W22" s="95">
+      <c r="W22" s="94">
         <v>7000</v>
       </c>
       <c r="X22" s="11" t="s">
@@ -9395,10 +9225,10 @@
       <c r="U23" s="43">
         <v>7000</v>
       </c>
-      <c r="V23" s="95">
+      <c r="V23" s="94">
         <v>3500</v>
       </c>
-      <c r="W23" s="95">
+      <c r="W23" s="94">
         <v>7000</v>
       </c>
       <c r="X23" s="11" t="s">
@@ -9472,10 +9302,10 @@
       <c r="U24" s="43">
         <v>70000</v>
       </c>
-      <c r="V24" s="95">
+      <c r="V24" s="94">
         <v>35000</v>
       </c>
-      <c r="W24" s="95">
+      <c r="W24" s="94">
         <v>70000</v>
       </c>
       <c r="X24" s="11" t="s">
@@ -9549,10 +9379,10 @@
       <c r="U25" s="43">
         <v>70000</v>
       </c>
-      <c r="V25" s="95">
+      <c r="V25" s="94">
         <v>35000</v>
       </c>
-      <c r="W25" s="95">
+      <c r="W25" s="94">
         <v>70000</v>
       </c>
       <c r="X25" s="11" t="s">
@@ -9626,10 +9456,10 @@
       <c r="U26" s="43">
         <v>2100000</v>
       </c>
-      <c r="V26" s="95">
+      <c r="V26" s="94">
         <v>1050000</v>
       </c>
-      <c r="W26" s="95">
+      <c r="W26" s="94">
         <v>420000000</v>
       </c>
       <c r="X26" s="11" t="s">
@@ -9852,13 +9682,13 @@
         <v>11</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="U29" s="12" t="s">
         <v>11</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="W29" s="12" t="s">
         <v>11</v>
@@ -23441,7 +23271,7 @@
     </row>
     <row r="12" spans="1:6" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B12" s="23">
         <v>1E-3</v>
@@ -23463,7 +23293,7 @@
     </row>
     <row r="14" spans="1:6" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B14" s="23">
         <v>4</v>
@@ -23513,7 +23343,7 @@
     </row>
     <row r="18" spans="1:1" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -23712,10 +23542,10 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="112" t="s">
+      <c r="I13" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="113"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
@@ -23726,8 +23556,8 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23811,16 +23641,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="126" t="s">
         <v>137</v>
       </c>
       <c r="E3" s="58" t="s">
@@ -23837,11 +23667,11 @@
       <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="117"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="127" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="129" t="s">
         <v>141</v>
       </c>
       <c r="F4" s="59" t="s">
@@ -23855,11 +23685,11 @@
       <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="117"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="128"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="59" t="s">
         <v>144</v>
       </c>
@@ -23869,10 +23699,10 @@
       <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="124" t="s">
+      <c r="A6" s="121"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="126" t="s">
         <v>145</v>
       </c>
       <c r="E6" s="58" t="s">
@@ -23887,10 +23717,10 @@
       <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="126"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="58" t="s">
         <v>148</v>
       </c>
@@ -23903,10 +23733,10 @@
       <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="124" t="s">
+      <c r="A8" s="121"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="126" t="s">
         <v>150</v>
       </c>
       <c r="E8" s="58" t="s">
@@ -23921,10 +23751,10 @@
       <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="117"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="126"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="58" t="s">
         <v>153</v>
       </c>
@@ -23935,9 +23765,9 @@
       <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="122"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="64" t="s">
         <v>154</v>
       </c>
@@ -23955,9 +23785,9 @@
       <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="123"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="64" t="s">
         <v>158</v>
       </c>
@@ -23971,9 +23801,9 @@
       <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="117"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="129" t="s">
+      <c r="A12" s="121"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="123" t="s">
         <v>160</v>
       </c>
       <c r="D12" s="65" t="s">
@@ -23993,9 +23823,9 @@
       <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="130"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="65"/>
       <c r="E13" s="58"/>
       <c r="F13" s="59"/>
@@ -24007,14 +23837,14 @@
       <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117"/>
-      <c r="B14" s="118" t="s">
+      <c r="A14" s="121"/>
+      <c r="B14" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="126" t="s">
         <v>167</v>
       </c>
       <c r="E14" s="58" t="s">
@@ -24029,10 +23859,10 @@
       <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="126"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="58" t="s">
         <v>141</v>
       </c>
@@ -24045,10 +23875,10 @@
       <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="124" t="s">
+      <c r="A16" s="121"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="126" t="s">
         <v>170</v>
       </c>
       <c r="E16" s="58" t="s">
@@ -24063,10 +23893,10 @@
       <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="117"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="126"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="58" t="s">
         <v>148</v>
       </c>
@@ -24079,10 +23909,10 @@
       <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="117"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="124" t="s">
+      <c r="A18" s="121"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="126" t="s">
         <v>150</v>
       </c>
       <c r="E18" s="58" t="s">
@@ -24097,10 +23927,10 @@
       <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="117"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="125"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="128"/>
       <c r="E19" s="58" t="s">
         <v>153</v>
       </c>
@@ -24113,10 +23943,10 @@
       <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="117"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="125"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="58"/>
       <c r="F20" s="59" t="s">
         <v>174</v>
@@ -24127,10 +23957,10 @@
       <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="117"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="125"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="128"/>
       <c r="E21" s="58"/>
       <c r="F21" s="59" t="s">
         <v>175</v>
@@ -24141,10 +23971,10 @@
       <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="117"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="125"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="128"/>
       <c r="E22" s="58"/>
       <c r="F22" s="59" t="s">
         <v>176</v>
@@ -24155,10 +23985,10 @@
       <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="117"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="126"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="58"/>
       <c r="F23" s="59" t="s">
         <v>177</v>
@@ -24169,12 +23999,12 @@
       <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="117"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="129" t="s">
+      <c r="A24" s="121"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="126" t="s">
         <v>178</v>
       </c>
       <c r="E24" s="58" t="s">
@@ -24193,10 +24023,10 @@
       <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="117"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="126"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="58"/>
       <c r="F25" s="59"/>
       <c r="G25" s="60" t="s">
@@ -24207,14 +24037,14 @@
       <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="117"/>
-      <c r="B26" s="118" t="s">
+      <c r="A26" s="121"/>
+      <c r="B26" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="126" t="s">
         <v>184</v>
       </c>
       <c r="E26" s="58" t="s">
@@ -24229,10 +24059,10 @@
       <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="126"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="58" t="s">
         <v>186</v>
       </c>
@@ -24243,10 +24073,10 @@
       <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="117"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="124" t="s">
+      <c r="A28" s="121"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="126" t="s">
         <v>187</v>
       </c>
       <c r="E28" s="58" t="s">
@@ -24261,10 +24091,10 @@
       <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="117"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="126"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="58" t="s">
         <v>148</v>
       </c>
@@ -24275,10 +24105,10 @@
       <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="124" t="s">
+      <c r="A30" s="121"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="126" t="s">
         <v>189</v>
       </c>
       <c r="E30" s="58" t="s">
@@ -24293,10 +24123,10 @@
       <c r="J30" s="63"/>
     </row>
     <row r="31" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="117"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="126"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="58" t="s">
         <v>153</v>
       </c>
@@ -24309,8 +24139,8 @@
       <c r="J31" s="63"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="117"/>
-      <c r="B32" s="120"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="66" t="s">
         <v>160</v>
       </c>
@@ -24327,14 +24157,14 @@
       <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="117"/>
-      <c r="B33" s="118" t="s">
+      <c r="A33" s="121"/>
+      <c r="B33" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="121" t="s">
+      <c r="C33" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="124" t="s">
+      <c r="D33" s="126" t="s">
         <v>195</v>
       </c>
       <c r="E33" s="58" t="s">
@@ -24349,10 +24179,10 @@
       <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="117"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="126"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="127"/>
       <c r="E34" s="58"/>
       <c r="F34" s="59" t="s">
         <v>196</v>
@@ -24363,10 +24193,10 @@
       <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="124" t="s">
+      <c r="A35" s="121"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="126" t="s">
         <v>197</v>
       </c>
       <c r="E35" s="58" t="s">
@@ -24381,10 +24211,10 @@
       <c r="J35" s="63"/>
     </row>
     <row r="36" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="117"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="125"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="128"/>
       <c r="E36" s="58"/>
       <c r="F36" s="59" t="s">
         <v>198</v>
@@ -24395,10 +24225,10 @@
       <c r="J36" s="63"/>
     </row>
     <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="117"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="125"/>
+      <c r="A37" s="121"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="128"/>
       <c r="E37" s="58"/>
       <c r="F37" s="59" t="s">
         <v>199</v>
@@ -24409,10 +24239,10 @@
       <c r="J37" s="63"/>
     </row>
     <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="117"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="125"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="128"/>
       <c r="E38" s="58" t="s">
         <v>187</v>
       </c>
@@ -24425,10 +24255,10 @@
       <c r="J38" s="63"/>
     </row>
     <row r="39" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="117"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="126"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="127"/>
       <c r="E39" s="58" t="s">
         <v>184</v>
       </c>
@@ -24441,10 +24271,10 @@
       <c r="J39" s="63"/>
     </row>
     <row r="40" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="117"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="124" t="s">
+      <c r="A40" s="121"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="126" t="s">
         <v>200</v>
       </c>
       <c r="E40" s="58" t="s">
@@ -24459,10 +24289,10 @@
       <c r="J40" s="63"/>
     </row>
     <row r="41" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="117"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="125"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="128"/>
       <c r="E41" s="58" t="s">
         <v>187</v>
       </c>
@@ -24475,10 +24305,10 @@
       <c r="J41" s="63"/>
     </row>
     <row r="42" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="117"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="125"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="128"/>
       <c r="E42" s="58" t="s">
         <v>153</v>
       </c>
@@ -24491,10 +24321,10 @@
       <c r="J42" s="63"/>
     </row>
     <row r="43" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="117"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="125"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="128"/>
       <c r="E43" s="58"/>
       <c r="F43" s="59" t="s">
         <v>201</v>
@@ -24505,10 +24335,10 @@
       <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="117"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="126"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="127"/>
       <c r="E44" s="58" t="s">
         <v>202</v>
       </c>
@@ -24521,12 +24351,12 @@
       <c r="J44" s="63"/>
     </row>
     <row r="45" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="117"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="129" t="s">
+      <c r="A45" s="121"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="124" t="s">
+      <c r="D45" s="126" t="s">
         <v>200</v>
       </c>
       <c r="E45" s="58" t="s">
@@ -24541,10 +24371,10 @@
       <c r="J45" s="63"/>
     </row>
     <row r="46" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="117"/>
-      <c r="B46" s="120"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="126"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="127"/>
       <c r="E46" s="58"/>
       <c r="F46" s="59" t="s">
         <v>193</v>
@@ -24555,11 +24385,11 @@
       <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="117"/>
-      <c r="B47" s="118" t="s">
+      <c r="A47" s="121"/>
+      <c r="B47" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="121" t="s">
+      <c r="C47" s="115" t="s">
         <v>136</v>
       </c>
       <c r="D47" s="65" t="s">
@@ -24577,9 +24407,9 @@
       <c r="J47" s="63"/>
     </row>
     <row r="48" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="117"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="122"/>
+      <c r="A48" s="121"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="116"/>
       <c r="D48" s="65" t="s">
         <v>210</v>
       </c>
@@ -24593,9 +24423,9 @@
       <c r="J48" s="63"/>
     </row>
     <row r="49" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="117"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="122"/>
+      <c r="A49" s="121"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="116"/>
       <c r="D49" s="65" t="s">
         <v>212</v>
       </c>
@@ -24607,8 +24437,8 @@
       <c r="J49" s="63"/>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="117"/>
-      <c r="B50" s="120"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="114"/>
       <c r="C50" s="69" t="s">
         <v>160</v>
       </c>
@@ -24625,11 +24455,11 @@
       <c r="J50" s="63"/>
     </row>
     <row r="51" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="117"/>
-      <c r="B51" s="118" t="s">
+      <c r="A51" s="121"/>
+      <c r="B51" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="C51" s="129" t="s">
+      <c r="C51" s="123" t="s">
         <v>216</v>
       </c>
       <c r="D51" s="65" t="s">
@@ -24645,9 +24475,9 @@
       <c r="J51" s="63"/>
     </row>
     <row r="52" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="117"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="131"/>
+      <c r="A52" s="121"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="125"/>
       <c r="D52" s="65" t="s">
         <v>219</v>
       </c>
@@ -24663,10 +24493,10 @@
       <c r="J52" s="63"/>
     </row>
     <row r="53" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="117"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="124" t="s">
+      <c r="A53" s="121"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="126" t="s">
         <v>222</v>
       </c>
       <c r="E53" s="58" t="s">
@@ -24681,10 +24511,10 @@
       <c r="J53" s="63"/>
     </row>
     <row r="54" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="117"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="125"/>
+      <c r="A54" s="121"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="128"/>
       <c r="E54" s="58" t="s">
         <v>225</v>
       </c>
@@ -24695,10 +24525,10 @@
       <c r="J54" s="63"/>
     </row>
     <row r="55" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="117"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="126"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="127"/>
       <c r="E55" s="58" t="s">
         <v>226</v>
       </c>
@@ -24709,12 +24539,12 @@
       <c r="J55" s="63"/>
     </row>
     <row r="56" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="117"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="129" t="s">
+      <c r="A56" s="121"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="124" t="s">
+      <c r="D56" s="126" t="s">
         <v>227</v>
       </c>
       <c r="E56" s="58" t="s">
@@ -24731,10 +24561,10 @@
       <c r="J56" s="63"/>
     </row>
     <row r="57" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="117"/>
-      <c r="B57" s="120"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="126"/>
+      <c r="A57" s="121"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="127"/>
       <c r="E57" s="58" t="s">
         <v>231</v>
       </c>
@@ -24745,11 +24575,11 @@
       <c r="J57" s="63"/>
     </row>
     <row r="58" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="117"/>
-      <c r="B58" s="118" t="s">
+      <c r="A58" s="121"/>
+      <c r="B58" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="121" t="s">
+      <c r="C58" s="115" t="s">
         <v>136</v>
       </c>
       <c r="D58" s="65" t="s">
@@ -24767,9 +24597,9 @@
       <c r="J58" s="63"/>
     </row>
     <row r="59" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="117"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="122"/>
+      <c r="A59" s="121"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="116"/>
       <c r="D59" s="65" t="s">
         <v>236</v>
       </c>
@@ -24781,9 +24611,9 @@
       <c r="J59" s="63"/>
     </row>
     <row r="60" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="117"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="122"/>
+      <c r="A60" s="121"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="116"/>
       <c r="D60" s="65"/>
       <c r="E60" s="58"/>
       <c r="F60" s="59"/>
@@ -24793,8 +24623,8 @@
       <c r="J60" s="63"/>
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="117"/>
-      <c r="B61" s="120"/>
+      <c r="A61" s="121"/>
+      <c r="B61" s="114"/>
       <c r="C61" s="66" t="s">
         <v>160</v>
       </c>
@@ -24811,11 +24641,11 @@
       <c r="J61" s="63"/>
     </row>
     <row r="62" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="117"/>
-      <c r="B62" s="118" t="s">
+      <c r="A62" s="121"/>
+      <c r="B62" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="C62" s="121" t="s">
+      <c r="C62" s="115" t="s">
         <v>136</v>
       </c>
       <c r="D62" s="65" t="s">
@@ -24833,9 +24663,9 @@
       <c r="J62" s="63"/>
     </row>
     <row r="63" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="117"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="122"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="116"/>
       <c r="D63" s="65" t="s">
         <v>236</v>
       </c>
@@ -24847,9 +24677,9 @@
       <c r="J63" s="63"/>
     </row>
     <row r="64" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="117"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="122"/>
+      <c r="A64" s="121"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="116"/>
       <c r="D64" s="65"/>
       <c r="E64" s="58"/>
       <c r="F64" s="59"/>
@@ -24859,8 +24689,8 @@
       <c r="J64" s="63"/>
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="117"/>
-      <c r="B65" s="120"/>
+      <c r="A65" s="121"/>
+      <c r="B65" s="114"/>
       <c r="C65" s="66" t="s">
         <v>160</v>
       </c>
@@ -24877,11 +24707,11 @@
       <c r="J65" s="63"/>
     </row>
     <row r="66" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="117"/>
-      <c r="B66" s="118" t="s">
+      <c r="A66" s="121"/>
+      <c r="B66" s="112" t="s">
         <v>244</v>
       </c>
-      <c r="C66" s="121" t="s">
+      <c r="C66" s="115" t="s">
         <v>136</v>
       </c>
       <c r="D66" s="65" t="s">
@@ -24895,9 +24725,9 @@
       <c r="J66" s="63"/>
     </row>
     <row r="67" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="117"/>
-      <c r="B67" s="119"/>
-      <c r="C67" s="122"/>
+      <c r="A67" s="121"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="116"/>
       <c r="D67" s="65"/>
       <c r="E67" s="58"/>
       <c r="F67" s="59"/>
@@ -24907,9 +24737,9 @@
       <c r="J67" s="63"/>
     </row>
     <row r="68" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="117"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="122"/>
+      <c r="A68" s="121"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="116"/>
       <c r="D68" s="65"/>
       <c r="E68" s="58"/>
       <c r="F68" s="59"/>
@@ -24919,8 +24749,8 @@
       <c r="J68" s="63"/>
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="117"/>
-      <c r="B69" s="120"/>
+      <c r="A69" s="121"/>
+      <c r="B69" s="114"/>
       <c r="C69" s="66" t="s">
         <v>160</v>
       </c>
@@ -24935,11 +24765,11 @@
       <c r="J69" s="63"/>
     </row>
     <row r="70" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="117"/>
-      <c r="B70" s="118" t="s">
+      <c r="A70" s="121"/>
+      <c r="B70" s="112" t="s">
         <v>247</v>
       </c>
-      <c r="C70" s="121" t="s">
+      <c r="C70" s="115" t="s">
         <v>248</v>
       </c>
       <c r="D70" s="65" t="s">
@@ -24957,9 +24787,9 @@
       <c r="J70" s="63"/>
     </row>
     <row r="71" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="117"/>
-      <c r="B71" s="119"/>
-      <c r="C71" s="131"/>
+      <c r="A71" s="121"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="125"/>
       <c r="D71" s="65" t="s">
         <v>252</v>
       </c>
@@ -24975,9 +24805,9 @@
       <c r="J71" s="63"/>
     </row>
     <row r="72" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="117"/>
-      <c r="B72" s="119"/>
-      <c r="C72" s="131"/>
+      <c r="A72" s="121"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="125"/>
       <c r="D72" s="65" t="s">
         <v>255</v>
       </c>
@@ -24993,9 +24823,9 @@
       <c r="J72" s="63"/>
     </row>
     <row r="73" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="117"/>
-      <c r="B73" s="119"/>
-      <c r="C73" s="131"/>
+      <c r="A73" s="121"/>
+      <c r="B73" s="113"/>
+      <c r="C73" s="125"/>
       <c r="D73" s="65"/>
       <c r="E73" s="58" t="s">
         <v>258</v>
@@ -25009,9 +24839,9 @@
       <c r="J73" s="63"/>
     </row>
     <row r="74" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="117"/>
-      <c r="B74" s="119"/>
-      <c r="C74" s="131"/>
+      <c r="A74" s="121"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="125"/>
       <c r="D74" s="65"/>
       <c r="E74" s="58" t="s">
         <v>260</v>
@@ -25025,9 +24855,9 @@
       <c r="J74" s="63"/>
     </row>
     <row r="75" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="117"/>
-      <c r="B75" s="119"/>
-      <c r="C75" s="131"/>
+      <c r="A75" s="121"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="125"/>
       <c r="D75" s="65"/>
       <c r="E75" s="58" t="s">
         <v>262</v>
@@ -25041,9 +24871,9 @@
       <c r="J75" s="63"/>
     </row>
     <row r="76" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="117"/>
-      <c r="B76" s="119"/>
-      <c r="C76" s="130"/>
+      <c r="A76" s="121"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="124"/>
       <c r="D76" s="65"/>
       <c r="E76" s="58" t="s">
         <v>264</v>
@@ -25057,8 +24887,8 @@
       <c r="J76" s="63"/>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="117"/>
-      <c r="B77" s="120"/>
+      <c r="A77" s="121"/>
+      <c r="B77" s="114"/>
       <c r="C77" s="66" t="s">
         <v>160</v>
       </c>
@@ -25075,11 +24905,11 @@
       <c r="J77" s="63"/>
     </row>
     <row r="78" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="117"/>
-      <c r="B78" s="118" t="s">
+      <c r="A78" s="121"/>
+      <c r="B78" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="121" t="s">
+      <c r="C78" s="115" t="s">
         <v>136</v>
       </c>
       <c r="D78" s="65" t="s">
@@ -25095,9 +24925,9 @@
       <c r="J78" s="63"/>
     </row>
     <row r="79" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="117"/>
-      <c r="B79" s="119"/>
-      <c r="C79" s="122"/>
+      <c r="A79" s="121"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="116"/>
       <c r="D79" s="65"/>
       <c r="E79" s="58"/>
       <c r="F79" s="59"/>
@@ -25107,9 +24937,9 @@
       <c r="J79" s="63"/>
     </row>
     <row r="80" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="117"/>
-      <c r="B80" s="119"/>
-      <c r="C80" s="122"/>
+      <c r="A80" s="121"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="116"/>
       <c r="D80" s="65"/>
       <c r="E80" s="58"/>
       <c r="F80" s="59"/>
@@ -25119,8 +24949,8 @@
       <c r="J80" s="63"/>
     </row>
     <row r="81" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="117"/>
-      <c r="B81" s="120"/>
+      <c r="A81" s="121"/>
+      <c r="B81" s="114"/>
       <c r="C81" s="66" t="s">
         <v>160</v>
       </c>
@@ -25135,8 +24965,8 @@
       <c r="J81" s="63"/>
     </row>
     <row r="82" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="117"/>
-      <c r="B82" s="118" t="s">
+      <c r="A82" s="121"/>
+      <c r="B82" s="112" t="s">
         <v>271</v>
       </c>
       <c r="C82" s="66" t="s">
@@ -25157,8 +24987,8 @@
       <c r="J82" s="63"/>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="117"/>
-      <c r="B83" s="120"/>
+      <c r="A83" s="121"/>
+      <c r="B83" s="114"/>
       <c r="C83" s="66" t="s">
         <v>160</v>
       </c>
@@ -25177,11 +25007,11 @@
       <c r="J83" s="63"/>
     </row>
     <row r="84" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="117"/>
-      <c r="B84" s="118" t="s">
+      <c r="A84" s="121"/>
+      <c r="B84" s="112" t="s">
         <v>278</v>
       </c>
-      <c r="C84" s="129" t="s">
+      <c r="C84" s="123" t="s">
         <v>216</v>
       </c>
       <c r="D84" s="65" t="s">
@@ -25199,9 +25029,9 @@
       <c r="J84" s="63"/>
     </row>
     <row r="85" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="117"/>
-      <c r="B85" s="120"/>
-      <c r="C85" s="130"/>
+      <c r="A85" s="121"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="124"/>
       <c r="D85" s="65" t="s">
         <v>282</v>
       </c>
@@ -25215,11 +25045,11 @@
       <c r="J85" s="63"/>
     </row>
     <row r="86" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="117"/>
-      <c r="B86" s="118" t="s">
+      <c r="A86" s="121"/>
+      <c r="B86" s="112" t="s">
         <v>284</v>
       </c>
-      <c r="C86" s="129" t="s">
+      <c r="C86" s="123" t="s">
         <v>285</v>
       </c>
       <c r="D86" s="65" t="s">
@@ -25235,9 +25065,9 @@
       <c r="J86" s="63"/>
     </row>
     <row r="87" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="117"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="130"/>
+      <c r="A87" s="121"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="124"/>
       <c r="D87" s="65" t="s">
         <v>288</v>
       </c>
@@ -25249,11 +25079,11 @@
       <c r="J87" s="63"/>
     </row>
     <row r="88" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="117"/>
-      <c r="B88" s="118" t="s">
+      <c r="A88" s="121"/>
+      <c r="B88" s="112" t="s">
         <v>289</v>
       </c>
-      <c r="C88" s="129" t="s">
+      <c r="C88" s="123" t="s">
         <v>285</v>
       </c>
       <c r="D88" s="65" t="s">
@@ -25269,9 +25099,9 @@
       <c r="J88" s="63"/>
     </row>
     <row r="89" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="117"/>
-      <c r="B89" s="120"/>
-      <c r="C89" s="130"/>
+      <c r="A89" s="121"/>
+      <c r="B89" s="114"/>
+      <c r="C89" s="124"/>
       <c r="D89" s="65" t="s">
         <v>291</v>
       </c>
@@ -25283,11 +25113,11 @@
       <c r="J89" s="63"/>
     </row>
     <row r="90" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="117"/>
-      <c r="B90" s="118" t="s">
+      <c r="A90" s="121"/>
+      <c r="B90" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="C90" s="121" t="s">
+      <c r="C90" s="115" t="s">
         <v>136</v>
       </c>
       <c r="D90" s="65" t="s">
@@ -25301,9 +25131,9 @@
       <c r="J90" s="63"/>
     </row>
     <row r="91" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="117"/>
-      <c r="B91" s="119"/>
-      <c r="C91" s="122"/>
+      <c r="A91" s="121"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="116"/>
       <c r="D91" s="65"/>
       <c r="E91" s="58"/>
       <c r="F91" s="59"/>
@@ -25313,9 +25143,9 @@
       <c r="J91" s="63"/>
     </row>
     <row r="92" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="117"/>
-      <c r="B92" s="119"/>
-      <c r="C92" s="122"/>
+      <c r="A92" s="121"/>
+      <c r="B92" s="113"/>
+      <c r="C92" s="116"/>
       <c r="D92" s="65" t="s">
         <v>293</v>
       </c>
@@ -25327,8 +25157,8 @@
       <c r="J92" s="63"/>
     </row>
     <row r="93" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="117"/>
-      <c r="B93" s="120"/>
+      <c r="A93" s="121"/>
+      <c r="B93" s="114"/>
       <c r="C93" s="66" t="s">
         <v>160</v>
       </c>
@@ -25343,13 +25173,13 @@
       <c r="J93" s="63"/>
     </row>
     <row r="94" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="116" t="s">
+      <c r="A94" s="120" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="118" t="s">
+      <c r="B94" s="112" t="s">
         <v>296</v>
       </c>
-      <c r="C94" s="121" t="s">
+      <c r="C94" s="115" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="65" t="s">
@@ -25365,9 +25195,9 @@
       <c r="J94" s="63"/>
     </row>
     <row r="95" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="117"/>
-      <c r="B95" s="119"/>
-      <c r="C95" s="122"/>
+      <c r="A95" s="121"/>
+      <c r="B95" s="113"/>
+      <c r="C95" s="116"/>
       <c r="D95" s="65" t="s">
         <v>299</v>
       </c>
@@ -25379,9 +25209,9 @@
       <c r="J95" s="63"/>
     </row>
     <row r="96" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="117"/>
-      <c r="B96" s="119"/>
-      <c r="C96" s="122"/>
+      <c r="A96" s="121"/>
+      <c r="B96" s="113"/>
+      <c r="C96" s="116"/>
       <c r="D96" s="65"/>
       <c r="E96" s="58"/>
       <c r="F96" s="59"/>
@@ -25391,8 +25221,8 @@
       <c r="J96" s="63"/>
     </row>
     <row r="97" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="117"/>
-      <c r="B97" s="120"/>
+      <c r="A97" s="121"/>
+      <c r="B97" s="114"/>
       <c r="C97" s="66" t="s">
         <v>160</v>
       </c>
@@ -25409,11 +25239,11 @@
       <c r="J97" s="63"/>
     </row>
     <row r="98" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="117"/>
-      <c r="B98" s="118" t="s">
+      <c r="A98" s="121"/>
+      <c r="B98" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="C98" s="121" t="s">
+      <c r="C98" s="115" t="s">
         <v>136</v>
       </c>
       <c r="D98" s="65" t="s">
@@ -25427,9 +25257,9 @@
       <c r="J98" s="63"/>
     </row>
     <row r="99" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="117"/>
-      <c r="B99" s="119"/>
-      <c r="C99" s="122"/>
+      <c r="A99" s="121"/>
+      <c r="B99" s="113"/>
+      <c r="C99" s="116"/>
       <c r="D99" s="65" t="s">
         <v>303</v>
       </c>
@@ -25441,9 +25271,9 @@
       <c r="J99" s="63"/>
     </row>
     <row r="100" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="117"/>
-      <c r="B100" s="119"/>
-      <c r="C100" s="122"/>
+      <c r="A100" s="121"/>
+      <c r="B100" s="113"/>
+      <c r="C100" s="116"/>
       <c r="D100" s="65" t="s">
         <v>304</v>
       </c>
@@ -25455,9 +25285,9 @@
       <c r="J100" s="63"/>
     </row>
     <row r="101" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="117"/>
-      <c r="B101" s="119"/>
-      <c r="C101" s="123"/>
+      <c r="A101" s="121"/>
+      <c r="B101" s="113"/>
+      <c r="C101" s="122"/>
       <c r="D101" s="65" t="s">
         <v>305</v>
       </c>
@@ -25469,9 +25299,9 @@
       <c r="J101" s="63"/>
     </row>
     <row r="102" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="117"/>
-      <c r="B102" s="119"/>
-      <c r="C102" s="129" t="s">
+      <c r="A102" s="121"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="123" t="s">
         <v>160</v>
       </c>
       <c r="D102" s="65" t="s">
@@ -25491,9 +25321,9 @@
       <c r="J102" s="63"/>
     </row>
     <row r="103" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="117"/>
-      <c r="B103" s="120"/>
-      <c r="C103" s="130"/>
+      <c r="A103" s="121"/>
+      <c r="B103" s="114"/>
+      <c r="C103" s="124"/>
       <c r="D103" s="65" t="s">
         <v>300</v>
       </c>
@@ -25505,11 +25335,11 @@
       <c r="J103" s="63"/>
     </row>
     <row r="104" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="117"/>
-      <c r="B104" s="118" t="s">
+      <c r="A104" s="121"/>
+      <c r="B104" s="112" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="121" t="s">
+      <c r="C104" s="115" t="s">
         <v>136</v>
       </c>
       <c r="D104" s="65" t="s">
@@ -25525,9 +25355,9 @@
       <c r="J104" s="63"/>
     </row>
     <row r="105" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="117"/>
-      <c r="B105" s="119"/>
-      <c r="C105" s="122"/>
+      <c r="A105" s="121"/>
+      <c r="B105" s="113"/>
+      <c r="C105" s="116"/>
       <c r="D105" s="65" t="s">
         <v>313</v>
       </c>
@@ -25539,9 +25369,9 @@
       <c r="J105" s="63"/>
     </row>
     <row r="106" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="117"/>
-      <c r="B106" s="119"/>
-      <c r="C106" s="122"/>
+      <c r="A106" s="121"/>
+      <c r="B106" s="113"/>
+      <c r="C106" s="116"/>
       <c r="D106" s="65" t="s">
         <v>314</v>
       </c>
@@ -25553,9 +25383,9 @@
       <c r="J106" s="63"/>
     </row>
     <row r="107" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="117"/>
-      <c r="B107" s="119"/>
-      <c r="C107" s="122"/>
+      <c r="A107" s="121"/>
+      <c r="B107" s="113"/>
+      <c r="C107" s="116"/>
       <c r="D107" s="65" t="s">
         <v>187</v>
       </c>
@@ -25567,9 +25397,9 @@
       <c r="J107" s="63"/>
     </row>
     <row r="108" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="117"/>
-      <c r="B108" s="119"/>
-      <c r="C108" s="123"/>
+      <c r="A108" s="121"/>
+      <c r="B108" s="113"/>
+      <c r="C108" s="122"/>
       <c r="D108" s="65" t="s">
         <v>184</v>
       </c>
@@ -25581,8 +25411,8 @@
       <c r="J108" s="63"/>
     </row>
     <row r="109" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="117"/>
-      <c r="B109" s="120"/>
+      <c r="A109" s="121"/>
+      <c r="B109" s="114"/>
       <c r="C109" s="66" t="s">
         <v>160</v>
       </c>
@@ -25597,11 +25427,11 @@
       <c r="J109" s="63"/>
     </row>
     <row r="110" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="117"/>
-      <c r="B110" s="118" t="s">
+      <c r="A110" s="121"/>
+      <c r="B110" s="112" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="121" t="s">
+      <c r="C110" s="115" t="s">
         <v>136</v>
       </c>
       <c r="D110" s="65" t="s">
@@ -25615,9 +25445,9 @@
       <c r="J110" s="63"/>
     </row>
     <row r="111" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="117"/>
-      <c r="B111" s="119"/>
-      <c r="C111" s="122"/>
+      <c r="A111" s="121"/>
+      <c r="B111" s="113"/>
+      <c r="C111" s="116"/>
       <c r="D111" s="65"/>
       <c r="E111" s="58"/>
       <c r="F111" s="59"/>
@@ -25627,9 +25457,9 @@
       <c r="J111" s="63"/>
     </row>
     <row r="112" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="117"/>
-      <c r="B112" s="120"/>
-      <c r="C112" s="122"/>
+      <c r="A112" s="121"/>
+      <c r="B112" s="114"/>
+      <c r="C112" s="116"/>
       <c r="D112" s="65"/>
       <c r="E112" s="58"/>
       <c r="F112" s="59"/>
@@ -25639,11 +25469,11 @@
       <c r="J112" s="63"/>
     </row>
     <row r="113" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="117"/>
-      <c r="B113" s="118" t="s">
+      <c r="A113" s="121"/>
+      <c r="B113" s="112" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="121" t="s">
+      <c r="C113" s="115" t="s">
         <v>136</v>
       </c>
       <c r="D113" s="65" t="s">
@@ -25657,9 +25487,9 @@
       <c r="J113" s="63"/>
     </row>
     <row r="114" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="117"/>
-      <c r="B114" s="119"/>
-      <c r="C114" s="122"/>
+      <c r="A114" s="121"/>
+      <c r="B114" s="113"/>
+      <c r="C114" s="116"/>
       <c r="D114" s="65"/>
       <c r="E114" s="58"/>
       <c r="F114" s="59"/>
@@ -25669,9 +25499,9 @@
       <c r="J114" s="63"/>
     </row>
     <row r="115" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="117"/>
-      <c r="B115" s="119"/>
-      <c r="C115" s="122"/>
+      <c r="A115" s="121"/>
+      <c r="B115" s="113"/>
+      <c r="C115" s="116"/>
       <c r="D115" s="65"/>
       <c r="E115" s="58"/>
       <c r="F115" s="59"/>
@@ -25681,8 +25511,8 @@
       <c r="J115" s="63"/>
     </row>
     <row r="116" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="117"/>
-      <c r="B116" s="120"/>
+      <c r="A116" s="121"/>
+      <c r="B116" s="114"/>
       <c r="C116" s="66" t="s">
         <v>160</v>
       </c>
@@ -25699,13 +25529,13 @@
       <c r="J116" s="63"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="132" t="s">
+      <c r="A117" s="117" t="s">
         <v>321</v>
       </c>
-      <c r="B117" s="118" t="s">
+      <c r="B117" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="135"/>
+      <c r="C117" s="107"/>
       <c r="D117" s="65" t="s">
         <v>323</v>
       </c>
@@ -25717,9 +25547,9 @@
       <c r="J117" s="63"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="133"/>
-      <c r="B118" s="120"/>
-      <c r="C118" s="136"/>
+      <c r="A118" s="118"/>
+      <c r="B118" s="114"/>
+      <c r="C118" s="109"/>
       <c r="D118" s="65" t="s">
         <v>324</v>
       </c>
@@ -25731,11 +25561,11 @@
       <c r="J118" s="63"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="133"/>
-      <c r="B119" s="118" t="s">
+      <c r="A119" s="118"/>
+      <c r="B119" s="112" t="s">
         <v>325</v>
       </c>
-      <c r="C119" s="135"/>
+      <c r="C119" s="107"/>
       <c r="D119" s="65" t="s">
         <v>326</v>
       </c>
@@ -25747,9 +25577,9 @@
       <c r="J119" s="63"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="133"/>
-      <c r="B120" s="120"/>
-      <c r="C120" s="136"/>
+      <c r="A120" s="118"/>
+      <c r="B120" s="114"/>
+      <c r="C120" s="109"/>
       <c r="D120" s="65" t="s">
         <v>327</v>
       </c>
@@ -25761,11 +25591,11 @@
       <c r="J120" s="63"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="133"/>
-      <c r="B121" s="118" t="s">
+      <c r="A121" s="118"/>
+      <c r="B121" s="112" t="s">
         <v>328</v>
       </c>
-      <c r="C121" s="135"/>
+      <c r="C121" s="107"/>
       <c r="D121" s="65" t="s">
         <v>329</v>
       </c>
@@ -25777,9 +25607,9 @@
       <c r="J121" s="63"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="133"/>
-      <c r="B122" s="119"/>
-      <c r="C122" s="137"/>
+      <c r="A122" s="118"/>
+      <c r="B122" s="113"/>
+      <c r="C122" s="108"/>
       <c r="D122" s="65" t="s">
         <v>330</v>
       </c>
@@ -25791,9 +25621,9 @@
       <c r="J122" s="63"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="133"/>
-      <c r="B123" s="119"/>
-      <c r="C123" s="137"/>
+      <c r="A123" s="118"/>
+      <c r="B123" s="113"/>
+      <c r="C123" s="108"/>
       <c r="D123" s="65" t="s">
         <v>331</v>
       </c>
@@ -25805,9 +25635,9 @@
       <c r="J123" s="63"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="133"/>
-      <c r="B124" s="119"/>
-      <c r="C124" s="137"/>
+      <c r="A124" s="118"/>
+      <c r="B124" s="113"/>
+      <c r="C124" s="108"/>
       <c r="D124" s="65" t="s">
         <v>332</v>
       </c>
@@ -25819,9 +25649,9 @@
       <c r="J124" s="63"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="133"/>
-      <c r="B125" s="120"/>
-      <c r="C125" s="136"/>
+      <c r="A125" s="118"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="109"/>
       <c r="D125" s="65" t="s">
         <v>333</v>
       </c>
@@ -25833,7 +25663,7 @@
       <c r="J125" s="63"/>
     </row>
     <row r="126" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A126" s="133"/>
+      <c r="A126" s="118"/>
       <c r="B126" s="74" t="s">
         <v>334</v>
       </c>
@@ -25849,11 +25679,11 @@
       <c r="J126" s="63"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="133"/>
-      <c r="B127" s="118" t="s">
+      <c r="A127" s="118"/>
+      <c r="B127" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="C127" s="135"/>
+      <c r="C127" s="107"/>
       <c r="D127" s="65" t="s">
         <v>337</v>
       </c>
@@ -25867,9 +25697,9 @@
       <c r="J127" s="63"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="133"/>
-      <c r="B128" s="119"/>
-      <c r="C128" s="137"/>
+      <c r="A128" s="118"/>
+      <c r="B128" s="113"/>
+      <c r="C128" s="108"/>
       <c r="D128" s="65" t="s">
         <v>247</v>
       </c>
@@ -25881,9 +25711,9 @@
       <c r="J128" s="63"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="133"/>
-      <c r="B129" s="119"/>
-      <c r="C129" s="137"/>
+      <c r="A129" s="118"/>
+      <c r="B129" s="113"/>
+      <c r="C129" s="108"/>
       <c r="D129" s="65" t="s">
         <v>339</v>
       </c>
@@ -25895,9 +25725,9 @@
       <c r="J129" s="63"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="133"/>
-      <c r="B130" s="120"/>
-      <c r="C130" s="136"/>
+      <c r="A130" s="118"/>
+      <c r="B130" s="114"/>
+      <c r="C130" s="109"/>
       <c r="D130" s="65" t="s">
         <v>340</v>
       </c>
@@ -25909,11 +25739,11 @@
       <c r="J130" s="63"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="133"/>
-      <c r="B131" s="138" t="s">
+      <c r="A131" s="118"/>
+      <c r="B131" s="110" t="s">
         <v>341</v>
       </c>
-      <c r="C131" s="135"/>
+      <c r="C131" s="107"/>
       <c r="D131" s="65" t="s">
         <v>342</v>
       </c>
@@ -25925,9 +25755,9 @@
       <c r="J131" s="63"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="133"/>
-      <c r="B132" s="139"/>
-      <c r="C132" s="136"/>
+      <c r="A132" s="118"/>
+      <c r="B132" s="111"/>
+      <c r="C132" s="109"/>
       <c r="D132" s="65" t="s">
         <v>343</v>
       </c>
@@ -25939,7 +25769,7 @@
       <c r="J132" s="63"/>
     </row>
     <row r="133" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A133" s="133"/>
+      <c r="A133" s="118"/>
       <c r="B133" s="74" t="s">
         <v>344</v>
       </c>
@@ -25955,11 +25785,11 @@
       <c r="J133" s="63"/>
     </row>
     <row r="134" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="133"/>
-      <c r="B134" s="118" t="s">
+      <c r="A134" s="118"/>
+      <c r="B134" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="C134" s="135"/>
+      <c r="C134" s="107"/>
       <c r="D134" s="65" t="s">
         <v>347</v>
       </c>
@@ -25971,9 +25801,9 @@
       <c r="J134" s="63"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="133"/>
-      <c r="B135" s="119"/>
-      <c r="C135" s="137"/>
+      <c r="A135" s="118"/>
+      <c r="B135" s="113"/>
+      <c r="C135" s="108"/>
       <c r="D135" s="65" t="s">
         <v>348</v>
       </c>
@@ -25985,9 +25815,9 @@
       <c r="J135" s="63"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="133"/>
-      <c r="B136" s="120"/>
-      <c r="C136" s="136"/>
+      <c r="A136" s="118"/>
+      <c r="B136" s="114"/>
+      <c r="C136" s="109"/>
       <c r="D136" s="65" t="s">
         <v>349</v>
       </c>
@@ -25999,7 +25829,7 @@
       <c r="J136" s="63"/>
     </row>
     <row r="137" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A137" s="133"/>
+      <c r="A137" s="118"/>
       <c r="B137" s="74" t="s">
         <v>350</v>
       </c>
@@ -26015,7 +25845,7 @@
       <c r="J137" s="63"/>
     </row>
     <row r="138" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A138" s="133"/>
+      <c r="A138" s="118"/>
       <c r="B138" s="74" t="s">
         <v>352</v>
       </c>
@@ -26031,7 +25861,7 @@
       <c r="J138" s="63"/>
     </row>
     <row r="139" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A139" s="133"/>
+      <c r="A139" s="118"/>
       <c r="B139" s="74" t="s">
         <v>354</v>
       </c>
@@ -26047,7 +25877,7 @@
       <c r="J139" s="63"/>
     </row>
     <row r="140" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A140" s="134"/>
+      <c r="A140" s="119"/>
       <c r="B140" s="74" t="s">
         <v>356</v>
       </c>
@@ -26064,11 +25894,64 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A93"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B33:B46"/>
+    <mergeCell ref="C33:C44"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C92"/>
     <mergeCell ref="B113:B116"/>
     <mergeCell ref="C113:C115"/>
     <mergeCell ref="A117:A140"/>
@@ -26085,64 +25968,11 @@
     <mergeCell ref="B98:B103"/>
     <mergeCell ref="C98:C101"/>
     <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B33:B46"/>
-    <mergeCell ref="C33:C44"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A93"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C134:C136"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目总表.xlsx
+++ b/项目总表.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="9" r:id="rId1"/>
     <sheet name="Coinnest上币" sheetId="1" r:id="rId2"/>
-    <sheet name="BtcBox上币" sheetId="2" r:id="rId3"/>
-    <sheet name="分叉步骤" sheetId="6" r:id="rId4"/>
-    <sheet name="功能模块列表" sheetId="7" r:id="rId5"/>
+    <sheet name="韩国站上币" sheetId="10" r:id="rId3"/>
+    <sheet name="BtcBox上币" sheetId="2" r:id="rId4"/>
+    <sheet name="分叉步骤" sheetId="6" r:id="rId5"/>
+    <sheet name="功能模块列表" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5099" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5129" uniqueCount="417">
   <si>
     <t>币的简写</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6017,12 +6018,128 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>韩国站币种规则</t>
+    <rPh sb="0" eb="1">
+      <t>fjfh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>uh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tmh</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tkh</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fwm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币的简写</t>
+    <rPh sb="0" eb="1">
+      <t>tmh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tuj</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pgn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币中文名称</t>
+  </si>
+  <si>
+    <t>比特币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以太经典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이더리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum Classic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放转入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入确认数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小成交限额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格小数位数限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易数量小数位数限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出数量小数位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级6【证件照认证】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.00005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0001 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6109,6 +6226,15 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -6311,7 +6437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -6488,13 +6614,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6752,11 +6887,61 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6770,11 +6955,47 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6788,20 +7009,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6818,23 +7030,23 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6845,83 +7057,35 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="11" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7226,7 +7390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F28"/>
     </sheetView>
   </sheetViews>
@@ -7241,33 +7405,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="119" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
     </row>
     <row r="2" spans="1:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="120" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="130" t="s">
         <v>372</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="100" t="s">
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="122" t="s">
         <v>373</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="85" t="s">
         <v>361</v>
       </c>
@@ -7286,242 +7450,255 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="125" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="148"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="123"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="96"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="149"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="124"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="149"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="124"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="96"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="149"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="96"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="149"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="124"/>
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="120" t="s">
         <v>395</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="149"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="124"/>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="131"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="149"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="124"/>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="131"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="149"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="131"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="149"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="124"/>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="99"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="149"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="124"/>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="149"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="124"/>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="131"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="149"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="124"/>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="131"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="149"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="131"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="149"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="124"/>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="149"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="124"/>
     </row>
     <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="149"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="124"/>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="131"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="149"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="124"/>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="149"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="124"/>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="131"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="149"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="124"/>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="149"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="124"/>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="B24" s="137"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="149"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="124"/>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="131"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="149"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="124"/>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="131"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="149"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="124"/>
     </row>
     <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="131"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="149"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="124"/>
     </row>
     <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="99"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="149"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="G4:G28"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F4:F28"/>
     <mergeCell ref="E9:E13"/>
@@ -7531,20 +7708,7 @@
     <mergeCell ref="D4:D28"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C28"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
     <mergeCell ref="E4:E8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="G4:G28"/>
-    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7553,13 +7717,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y203"/>
+  <dimension ref="A1:AB203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomRight" activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7585,9 +7749,10 @@
     <col min="20" max="20" width="15.6640625" customWidth="1"/>
     <col min="21" max="21" width="17.83203125" customWidth="1"/>
     <col min="22" max="25" width="12.83203125" customWidth="1"/>
+    <col min="28" max="28" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7657,14 +7822,14 @@
       <c r="W1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>11</v>
+      <c r="X1" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -7741,7 +7906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -7816,7 +7981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -7893,7 +8058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -7970,7 +8135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -8046,8 +8211,9 @@
       <c r="Y6" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB6" s="165"/>
+    </row>
+    <row r="7" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -8117,14 +8283,15 @@
       <c r="W7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="7" t="s">
-        <v>11</v>
+      <c r="X7" s="7">
+        <v>3</v>
       </c>
       <c r="Y7" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB7" s="165"/>
+    </row>
+    <row r="8" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
@@ -8200,8 +8367,9 @@
       <c r="Y8" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+      <c r="AB8" s="165"/>
+    </row>
+    <row r="9" spans="1:28" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -8271,14 +8439,15 @@
       <c r="W9" s="92">
         <v>1E-3</v>
       </c>
-      <c r="X9" s="8" t="s">
-        <v>11</v>
+      <c r="X9" s="92">
+        <v>1E-3</v>
       </c>
       <c r="Y9" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB9" s="165"/>
+    </row>
+    <row r="10" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
@@ -8348,14 +8517,15 @@
       <c r="W10" s="92">
         <v>1E-3</v>
       </c>
-      <c r="X10" s="8" t="s">
-        <v>11</v>
+      <c r="X10" s="92">
+        <v>1E-3</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB10" s="165"/>
+    </row>
+    <row r="11" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
@@ -8396,7 +8566,7 @@
         <v>500</v>
       </c>
       <c r="N11" s="8">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="O11" s="8">
         <v>5</v>
@@ -8423,27 +8593,28 @@
         <v>10</v>
       </c>
       <c r="W11" s="8">
-        <v>10</v>
-      </c>
-      <c r="X11" s="8" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <v>500</v>
       </c>
       <c r="Y11" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB11" s="165"/>
+    </row>
+    <row r="12" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="13">
-        <v>1E-4</v>
+      <c r="B12" s="166" t="s">
+        <v>414</v>
       </c>
       <c r="C12" s="8">
         <v>1E-3</v>
       </c>
       <c r="D12" s="8">
-        <v>0.1</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E12" s="8">
         <v>0.1</v>
@@ -8452,34 +8623,34 @@
         <v>0.1</v>
       </c>
       <c r="G12" s="8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H12" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I12" s="8">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J12" s="8">
         <v>0.1</v>
       </c>
       <c r="K12" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1E-3</v>
+        <v>2E-3</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>415</v>
       </c>
       <c r="M12" s="8">
         <v>1E-3</v>
       </c>
       <c r="N12" s="8">
-        <v>340</v>
+        <v>25</v>
       </c>
       <c r="O12" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P12" s="46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>11</v>
@@ -8488,28 +8659,29 @@
         <v>0.1</v>
       </c>
       <c r="S12" s="8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T12" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U12" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V12" s="8">
-        <v>1</v>
-      </c>
-      <c r="W12" s="8">
-        <v>1</v>
-      </c>
-      <c r="X12" s="8" t="s">
-        <v>11</v>
+        <v>0.5</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="X12" s="8">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="Y12" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB12" s="165"/>
+    </row>
+    <row r="13" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>114</v>
       </c>
@@ -8545,10 +8717,13 @@
       <c r="W13" s="8">
         <v>1</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8">
+        <v>4</v>
+      </c>
       <c r="Y13" s="8"/>
-    </row>
-    <row r="14" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB13" s="165"/>
+    </row>
+    <row r="14" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>113</v>
       </c>
@@ -8618,14 +8793,15 @@
       <c r="W14" s="8">
         <v>4</v>
       </c>
-      <c r="X14" s="8" t="s">
-        <v>11</v>
+      <c r="X14" s="8">
+        <v>4</v>
       </c>
       <c r="Y14" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+      <c r="AB14" s="165"/>
+    </row>
+    <row r="15" spans="1:28" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>48</v>
       </c>
@@ -8701,8 +8877,9 @@
       <c r="Y15" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="AB15" s="165"/>
+    </row>
+    <row r="16" spans="1:28" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>49</v>
       </c>
@@ -8772,14 +8949,15 @@
       <c r="W16" s="9">
         <v>1</v>
       </c>
-      <c r="X16" s="9" t="s">
-        <v>11</v>
+      <c r="X16" s="9">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="Y16" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB16" s="165"/>
+    </row>
+    <row r="17" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -8855,8 +9033,9 @@
       <c r="Y17" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB17" s="165"/>
+    </row>
+    <row r="18" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>88</v>
       </c>
@@ -8896,10 +9075,13 @@
       <c r="W18" s="9">
         <v>8</v>
       </c>
-      <c r="X18" s="9"/>
+      <c r="X18" s="9">
+        <v>8</v>
+      </c>
       <c r="Y18" s="9"/>
-    </row>
-    <row r="19" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB18" s="165"/>
+    </row>
+    <row r="19" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>376</v>
       </c>
@@ -8929,8 +9111,9 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
-    </row>
-    <row r="20" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB19" s="165"/>
+    </row>
+    <row r="20" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>52</v>
       </c>
@@ -9000,14 +9183,15 @@
       <c r="W20" s="94">
         <v>0</v>
       </c>
-      <c r="X20" s="11" t="s">
-        <v>11</v>
+      <c r="X20" s="11">
+        <v>0</v>
       </c>
       <c r="Y20" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB20" s="165"/>
+    </row>
+    <row r="21" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>53</v>
       </c>
@@ -9077,14 +9261,15 @@
       <c r="W21" s="94">
         <v>0</v>
       </c>
-      <c r="X21" s="11" t="s">
-        <v>11</v>
+      <c r="X21" s="11">
+        <v>0</v>
       </c>
       <c r="Y21" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB21" s="165"/>
+    </row>
+    <row r="22" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>54</v>
       </c>
@@ -9154,14 +9339,15 @@
       <c r="W22" s="94">
         <v>7000</v>
       </c>
-      <c r="X22" s="11" t="s">
-        <v>11</v>
+      <c r="X22" s="11">
+        <v>5</v>
       </c>
       <c r="Y22" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB22" s="165"/>
+    </row>
+    <row r="23" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>55</v>
       </c>
@@ -9231,14 +9417,15 @@
       <c r="W23" s="94">
         <v>7000</v>
       </c>
-      <c r="X23" s="11" t="s">
-        <v>11</v>
+      <c r="X23" s="11">
+        <v>5</v>
       </c>
       <c r="Y23" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB23" s="165"/>
+    </row>
+    <row r="24" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>56</v>
       </c>
@@ -9308,14 +9495,15 @@
       <c r="W24" s="94">
         <v>70000</v>
       </c>
-      <c r="X24" s="11" t="s">
-        <v>11</v>
+      <c r="X24" s="11">
+        <v>100</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB24" s="165"/>
+    </row>
+    <row r="25" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>73</v>
       </c>
@@ -9385,14 +9573,15 @@
       <c r="W25" s="94">
         <v>70000</v>
       </c>
-      <c r="X25" s="11" t="s">
-        <v>11</v>
+      <c r="X25" s="11">
+        <v>500</v>
       </c>
       <c r="Y25" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB25" s="165"/>
+    </row>
+    <row r="26" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>57</v>
       </c>
@@ -9468,8 +9657,9 @@
       <c r="Y26" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB26" s="165"/>
+    </row>
+    <row r="27" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>58</v>
       </c>
@@ -9546,7 +9736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>59</v>
       </c>
@@ -9623,7 +9813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>60</v>
       </c>
@@ -9700,7 +9890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -9777,7 +9967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>62</v>
       </c>
@@ -9854,7 +10044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -23106,10 +23296,408 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="15" style="27" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="136" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="95"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="96" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="71"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="71"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="71"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="99" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="59">
+        <v>1</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
+        <v>12</v>
+      </c>
+      <c r="E7" s="59">
+        <v>12</v>
+      </c>
+      <c r="F7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="100" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" s="58">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58">
+        <v>1E-3</v>
+      </c>
+      <c r="E9" s="58">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="58"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="58">
+        <v>1E-3</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="58">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="58"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="58">
+        <v>500</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58">
+        <v>100</v>
+      </c>
+      <c r="E11" s="58">
+        <v>50</v>
+      </c>
+      <c r="F11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="100" t="s">
+        <v>409</v>
+      </c>
+      <c r="B12" s="58">
+        <v>1E-4</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="58"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="100" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="58">
+        <v>0</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58">
+        <v>0</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0</v>
+      </c>
+      <c r="F13" s="58"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="100" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" s="58">
+        <v>4</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58">
+        <v>4</v>
+      </c>
+      <c r="E14" s="58">
+        <v>4</v>
+      </c>
+      <c r="F14" s="58"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+    </row>
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="102">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="102"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="101" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="102">
+        <v>8</v>
+      </c>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102">
+        <v>8</v>
+      </c>
+      <c r="E18" s="102">
+        <v>8</v>
+      </c>
+      <c r="F18" s="102"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="105">
+        <v>0</v>
+      </c>
+      <c r="C19" s="106"/>
+      <c r="D19" s="105">
+        <v>0</v>
+      </c>
+      <c r="E19" s="105">
+        <v>0</v>
+      </c>
+      <c r="F19" s="106"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="105">
+        <v>0</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="105">
+        <v>0</v>
+      </c>
+      <c r="E20" s="105">
+        <v>0</v>
+      </c>
+      <c r="F20" s="106"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="105">
+        <v>1.5</v>
+      </c>
+      <c r="C21" s="106"/>
+      <c r="D21" s="105">
+        <v>150</v>
+      </c>
+      <c r="E21" s="105">
+        <v>3500</v>
+      </c>
+      <c r="F21" s="106"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="105">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="106"/>
+      <c r="D22" s="105">
+        <v>150</v>
+      </c>
+      <c r="E22" s="105">
+        <v>3500</v>
+      </c>
+      <c r="F22" s="106"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="105">
+        <v>40</v>
+      </c>
+      <c r="C23" s="106"/>
+      <c r="D23" s="105">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="105">
+        <v>35000</v>
+      </c>
+      <c r="F23" s="106"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="104" t="s">
+        <v>413</v>
+      </c>
+      <c r="B24" s="105">
+        <v>60</v>
+      </c>
+      <c r="C24" s="106"/>
+      <c r="D24" s="105">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="105">
+        <v>35000</v>
+      </c>
+      <c r="F24" s="106"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23352,7 +23940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -23542,10 +24130,10 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="103" t="s">
+      <c r="I13" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="104"/>
+      <c r="J13" s="138"/>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
@@ -23556,8 +24144,8 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23568,7 +24156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J140"/>
   <sheetViews>
@@ -23595,18 +24183,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -23641,16 +24229,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="143" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="149" t="s">
         <v>137</v>
       </c>
       <c r="E3" s="58" t="s">
@@ -23667,11 +24255,11 @@
       <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129" t="s">
+      <c r="A4" s="142"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="152" t="s">
         <v>141</v>
       </c>
       <c r="F4" s="59" t="s">
@@ -23685,11 +24273,11 @@
       <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="121"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="130"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="153"/>
       <c r="F5" s="59" t="s">
         <v>144</v>
       </c>
@@ -23699,10 +24287,10 @@
       <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="121"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="126" t="s">
+      <c r="A6" s="142"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="149" t="s">
         <v>145</v>
       </c>
       <c r="E6" s="58" t="s">
@@ -23717,10 +24305,10 @@
       <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="127"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="151"/>
       <c r="E7" s="58" t="s">
         <v>148</v>
       </c>
@@ -23733,10 +24321,10 @@
       <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="126" t="s">
+      <c r="A8" s="142"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="149" t="s">
         <v>150</v>
       </c>
       <c r="E8" s="58" t="s">
@@ -23751,10 +24339,10 @@
       <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="127"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="151"/>
       <c r="E9" s="58" t="s">
         <v>153</v>
       </c>
@@ -23765,9 +24353,9 @@
       <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="121"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="116"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="64" t="s">
         <v>154</v>
       </c>
@@ -23785,9 +24373,9 @@
       <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="121"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="122"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="64" t="s">
         <v>158</v>
       </c>
@@ -23801,9 +24389,9 @@
       <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="121"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="123" t="s">
+      <c r="A12" s="142"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="154" t="s">
         <v>160</v>
       </c>
       <c r="D12" s="65" t="s">
@@ -23823,9 +24411,9 @@
       <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="124"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="155"/>
       <c r="D13" s="65"/>
       <c r="E13" s="58"/>
       <c r="F13" s="59"/>
@@ -23837,14 +24425,14 @@
       <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="121"/>
-      <c r="B14" s="112" t="s">
+      <c r="A14" s="142"/>
+      <c r="B14" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="126" t="s">
+      <c r="D14" s="149" t="s">
         <v>167</v>
       </c>
       <c r="E14" s="58" t="s">
@@ -23859,10 +24447,10 @@
       <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="121"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="127"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="58" t="s">
         <v>141</v>
       </c>
@@ -23875,10 +24463,10 @@
       <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="121"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="126" t="s">
+      <c r="A16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="149" t="s">
         <v>170</v>
       </c>
       <c r="E16" s="58" t="s">
@@ -23893,10 +24481,10 @@
       <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="121"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="127"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="151"/>
       <c r="E17" s="58" t="s">
         <v>148</v>
       </c>
@@ -23909,10 +24497,10 @@
       <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="121"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="126" t="s">
+      <c r="A18" s="142"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="149" t="s">
         <v>150</v>
       </c>
       <c r="E18" s="58" t="s">
@@ -23927,10 +24515,10 @@
       <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="128"/>
+      <c r="A19" s="142"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="150"/>
       <c r="E19" s="58" t="s">
         <v>153</v>
       </c>
@@ -23943,10 +24531,10 @@
       <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="121"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="128"/>
+      <c r="A20" s="142"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="150"/>
       <c r="E20" s="58"/>
       <c r="F20" s="59" t="s">
         <v>174</v>
@@ -23957,10 +24545,10 @@
       <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="128"/>
+      <c r="A21" s="142"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="150"/>
       <c r="E21" s="58"/>
       <c r="F21" s="59" t="s">
         <v>175</v>
@@ -23971,10 +24559,10 @@
       <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="128"/>
+      <c r="A22" s="142"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="150"/>
       <c r="E22" s="58"/>
       <c r="F22" s="59" t="s">
         <v>176</v>
@@ -23985,10 +24573,10 @@
       <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="127"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="151"/>
       <c r="E23" s="58"/>
       <c r="F23" s="59" t="s">
         <v>177</v>
@@ -23999,12 +24587,12 @@
       <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="121"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="123" t="s">
+      <c r="A24" s="142"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="154" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="149" t="s">
         <v>178</v>
       </c>
       <c r="E24" s="58" t="s">
@@ -24023,10 +24611,10 @@
       <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="121"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="127"/>
+      <c r="A25" s="142"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="151"/>
       <c r="E25" s="58"/>
       <c r="F25" s="59"/>
       <c r="G25" s="60" t="s">
@@ -24037,14 +24625,14 @@
       <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="121"/>
-      <c r="B26" s="112" t="s">
+      <c r="A26" s="142"/>
+      <c r="B26" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="126" t="s">
+      <c r="D26" s="149" t="s">
         <v>184</v>
       </c>
       <c r="E26" s="58" t="s">
@@ -24059,10 +24647,10 @@
       <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="121"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="127"/>
+      <c r="A27" s="142"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="151"/>
       <c r="E27" s="58" t="s">
         <v>186</v>
       </c>
@@ -24073,10 +24661,10 @@
       <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="121"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="126" t="s">
+      <c r="A28" s="142"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="149" t="s">
         <v>187</v>
       </c>
       <c r="E28" s="58" t="s">
@@ -24091,10 +24679,10 @@
       <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="121"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="127"/>
+      <c r="A29" s="142"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="151"/>
       <c r="E29" s="58" t="s">
         <v>148</v>
       </c>
@@ -24105,10 +24693,10 @@
       <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="126" t="s">
+      <c r="A30" s="142"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="149" t="s">
         <v>189</v>
       </c>
       <c r="E30" s="58" t="s">
@@ -24123,10 +24711,10 @@
       <c r="J30" s="63"/>
     </row>
     <row r="31" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="121"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="127"/>
+      <c r="A31" s="142"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="151"/>
       <c r="E31" s="58" t="s">
         <v>153</v>
       </c>
@@ -24139,8 +24727,8 @@
       <c r="J31" s="63"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="121"/>
-      <c r="B32" s="114"/>
+      <c r="A32" s="142"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="66" t="s">
         <v>160</v>
       </c>
@@ -24157,14 +24745,14 @@
       <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="121"/>
-      <c r="B33" s="112" t="s">
+      <c r="A33" s="142"/>
+      <c r="B33" s="143" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="126" t="s">
+      <c r="D33" s="149" t="s">
         <v>195</v>
       </c>
       <c r="E33" s="58" t="s">
@@ -24179,10 +24767,10 @@
       <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="121"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="127"/>
+      <c r="A34" s="142"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="151"/>
       <c r="E34" s="58"/>
       <c r="F34" s="59" t="s">
         <v>196</v>
@@ -24193,10 +24781,10 @@
       <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="121"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="126" t="s">
+      <c r="A35" s="142"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="149" t="s">
         <v>197</v>
       </c>
       <c r="E35" s="58" t="s">
@@ -24211,10 +24799,10 @@
       <c r="J35" s="63"/>
     </row>
     <row r="36" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="121"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="128"/>
+      <c r="A36" s="142"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="58"/>
       <c r="F36" s="59" t="s">
         <v>198</v>
@@ -24225,10 +24813,10 @@
       <c r="J36" s="63"/>
     </row>
     <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="121"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="128"/>
+      <c r="A37" s="142"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="150"/>
       <c r="E37" s="58"/>
       <c r="F37" s="59" t="s">
         <v>199</v>
@@ -24239,10 +24827,10 @@
       <c r="J37" s="63"/>
     </row>
     <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="121"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="128"/>
+      <c r="A38" s="142"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="150"/>
       <c r="E38" s="58" t="s">
         <v>187</v>
       </c>
@@ -24255,10 +24843,10 @@
       <c r="J38" s="63"/>
     </row>
     <row r="39" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="121"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="127"/>
+      <c r="A39" s="142"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="151"/>
       <c r="E39" s="58" t="s">
         <v>184</v>
       </c>
@@ -24271,10 +24859,10 @@
       <c r="J39" s="63"/>
     </row>
     <row r="40" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="121"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="126" t="s">
+      <c r="A40" s="142"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="149" t="s">
         <v>200</v>
       </c>
       <c r="E40" s="58" t="s">
@@ -24289,10 +24877,10 @@
       <c r="J40" s="63"/>
     </row>
     <row r="41" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="121"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="128"/>
+      <c r="A41" s="142"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="150"/>
       <c r="E41" s="58" t="s">
         <v>187</v>
       </c>
@@ -24305,10 +24893,10 @@
       <c r="J41" s="63"/>
     </row>
     <row r="42" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="121"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="128"/>
+      <c r="A42" s="142"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="150"/>
       <c r="E42" s="58" t="s">
         <v>153</v>
       </c>
@@ -24321,10 +24909,10 @@
       <c r="J42" s="63"/>
     </row>
     <row r="43" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="121"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="128"/>
+      <c r="A43" s="142"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="150"/>
       <c r="E43" s="58"/>
       <c r="F43" s="59" t="s">
         <v>201</v>
@@ -24335,10 +24923,10 @@
       <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="121"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="127"/>
+      <c r="A44" s="142"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="151"/>
       <c r="E44" s="58" t="s">
         <v>202</v>
       </c>
@@ -24351,12 +24939,12 @@
       <c r="J44" s="63"/>
     </row>
     <row r="45" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="121"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="123" t="s">
+      <c r="A45" s="142"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="154" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="126" t="s">
+      <c r="D45" s="149" t="s">
         <v>200</v>
       </c>
       <c r="E45" s="58" t="s">
@@ -24371,10 +24959,10 @@
       <c r="J45" s="63"/>
     </row>
     <row r="46" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="121"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="127"/>
+      <c r="A46" s="142"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="151"/>
       <c r="E46" s="58"/>
       <c r="F46" s="59" t="s">
         <v>193</v>
@@ -24385,11 +24973,11 @@
       <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="121"/>
-      <c r="B47" s="112" t="s">
+      <c r="A47" s="142"/>
+      <c r="B47" s="143" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="115" t="s">
+      <c r="C47" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D47" s="65" t="s">
@@ -24407,9 +24995,9 @@
       <c r="J47" s="63"/>
     </row>
     <row r="48" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="121"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="116"/>
+      <c r="A48" s="142"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="147"/>
       <c r="D48" s="65" t="s">
         <v>210</v>
       </c>
@@ -24423,9 +25011,9 @@
       <c r="J48" s="63"/>
     </row>
     <row r="49" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="121"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="116"/>
+      <c r="A49" s="142"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="147"/>
       <c r="D49" s="65" t="s">
         <v>212</v>
       </c>
@@ -24437,8 +25025,8 @@
       <c r="J49" s="63"/>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="121"/>
-      <c r="B50" s="114"/>
+      <c r="A50" s="142"/>
+      <c r="B50" s="145"/>
       <c r="C50" s="69" t="s">
         <v>160</v>
       </c>
@@ -24455,11 +25043,11 @@
       <c r="J50" s="63"/>
     </row>
     <row r="51" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="121"/>
-      <c r="B51" s="112" t="s">
+      <c r="A51" s="142"/>
+      <c r="B51" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="C51" s="123" t="s">
+      <c r="C51" s="154" t="s">
         <v>216</v>
       </c>
       <c r="D51" s="65" t="s">
@@ -24475,9 +25063,9 @@
       <c r="J51" s="63"/>
     </row>
     <row r="52" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="121"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="125"/>
+      <c r="A52" s="142"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="156"/>
       <c r="D52" s="65" t="s">
         <v>219</v>
       </c>
@@ -24493,10 +25081,10 @@
       <c r="J52" s="63"/>
     </row>
     <row r="53" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="121"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="126" t="s">
+      <c r="A53" s="142"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="149" t="s">
         <v>222</v>
       </c>
       <c r="E53" s="58" t="s">
@@ -24511,10 +25099,10 @@
       <c r="J53" s="63"/>
     </row>
     <row r="54" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="121"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="128"/>
+      <c r="A54" s="142"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="150"/>
       <c r="E54" s="58" t="s">
         <v>225</v>
       </c>
@@ -24525,10 +25113,10 @@
       <c r="J54" s="63"/>
     </row>
     <row r="55" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="121"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="127"/>
+      <c r="A55" s="142"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="155"/>
+      <c r="D55" s="151"/>
       <c r="E55" s="58" t="s">
         <v>226</v>
       </c>
@@ -24539,12 +25127,12 @@
       <c r="J55" s="63"/>
     </row>
     <row r="56" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="121"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="123" t="s">
+      <c r="A56" s="142"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="154" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="126" t="s">
+      <c r="D56" s="149" t="s">
         <v>227</v>
       </c>
       <c r="E56" s="58" t="s">
@@ -24561,10 +25149,10 @@
       <c r="J56" s="63"/>
     </row>
     <row r="57" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="121"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="127"/>
+      <c r="A57" s="142"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="151"/>
       <c r="E57" s="58" t="s">
         <v>231</v>
       </c>
@@ -24575,11 +25163,11 @@
       <c r="J57" s="63"/>
     </row>
     <row r="58" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="121"/>
-      <c r="B58" s="112" t="s">
+      <c r="A58" s="142"/>
+      <c r="B58" s="143" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="115" t="s">
+      <c r="C58" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D58" s="65" t="s">
@@ -24597,9 +25185,9 @@
       <c r="J58" s="63"/>
     </row>
     <row r="59" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="121"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="116"/>
+      <c r="A59" s="142"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="147"/>
       <c r="D59" s="65" t="s">
         <v>236</v>
       </c>
@@ -24611,9 +25199,9 @@
       <c r="J59" s="63"/>
     </row>
     <row r="60" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="121"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="116"/>
+      <c r="A60" s="142"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="147"/>
       <c r="D60" s="65"/>
       <c r="E60" s="58"/>
       <c r="F60" s="59"/>
@@ -24623,8 +25211,8 @@
       <c r="J60" s="63"/>
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="121"/>
-      <c r="B61" s="114"/>
+      <c r="A61" s="142"/>
+      <c r="B61" s="145"/>
       <c r="C61" s="66" t="s">
         <v>160</v>
       </c>
@@ -24641,11 +25229,11 @@
       <c r="J61" s="63"/>
     </row>
     <row r="62" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="121"/>
-      <c r="B62" s="112" t="s">
+      <c r="A62" s="142"/>
+      <c r="B62" s="143" t="s">
         <v>239</v>
       </c>
-      <c r="C62" s="115" t="s">
+      <c r="C62" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D62" s="65" t="s">
@@ -24663,9 +25251,9 @@
       <c r="J62" s="63"/>
     </row>
     <row r="63" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="121"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="116"/>
+      <c r="A63" s="142"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="147"/>
       <c r="D63" s="65" t="s">
         <v>236</v>
       </c>
@@ -24677,9 +25265,9 @@
       <c r="J63" s="63"/>
     </row>
     <row r="64" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="121"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="116"/>
+      <c r="A64" s="142"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="147"/>
       <c r="D64" s="65"/>
       <c r="E64" s="58"/>
       <c r="F64" s="59"/>
@@ -24689,8 +25277,8 @@
       <c r="J64" s="63"/>
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="121"/>
-      <c r="B65" s="114"/>
+      <c r="A65" s="142"/>
+      <c r="B65" s="145"/>
       <c r="C65" s="66" t="s">
         <v>160</v>
       </c>
@@ -24707,11 +25295,11 @@
       <c r="J65" s="63"/>
     </row>
     <row r="66" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="121"/>
-      <c r="B66" s="112" t="s">
+      <c r="A66" s="142"/>
+      <c r="B66" s="143" t="s">
         <v>244</v>
       </c>
-      <c r="C66" s="115" t="s">
+      <c r="C66" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D66" s="65" t="s">
@@ -24725,9 +25313,9 @@
       <c r="J66" s="63"/>
     </row>
     <row r="67" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="121"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="116"/>
+      <c r="A67" s="142"/>
+      <c r="B67" s="144"/>
+      <c r="C67" s="147"/>
       <c r="D67" s="65"/>
       <c r="E67" s="58"/>
       <c r="F67" s="59"/>
@@ -24737,9 +25325,9 @@
       <c r="J67" s="63"/>
     </row>
     <row r="68" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="121"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="116"/>
+      <c r="A68" s="142"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="147"/>
       <c r="D68" s="65"/>
       <c r="E68" s="58"/>
       <c r="F68" s="59"/>
@@ -24749,8 +25337,8 @@
       <c r="J68" s="63"/>
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="121"/>
-      <c r="B69" s="114"/>
+      <c r="A69" s="142"/>
+      <c r="B69" s="145"/>
       <c r="C69" s="66" t="s">
         <v>160</v>
       </c>
@@ -24765,11 +25353,11 @@
       <c r="J69" s="63"/>
     </row>
     <row r="70" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="121"/>
-      <c r="B70" s="112" t="s">
+      <c r="A70" s="142"/>
+      <c r="B70" s="143" t="s">
         <v>247</v>
       </c>
-      <c r="C70" s="115" t="s">
+      <c r="C70" s="146" t="s">
         <v>248</v>
       </c>
       <c r="D70" s="65" t="s">
@@ -24787,9 +25375,9 @@
       <c r="J70" s="63"/>
     </row>
     <row r="71" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="121"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="125"/>
+      <c r="A71" s="142"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="156"/>
       <c r="D71" s="65" t="s">
         <v>252</v>
       </c>
@@ -24805,9 +25393,9 @@
       <c r="J71" s="63"/>
     </row>
     <row r="72" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="121"/>
-      <c r="B72" s="113"/>
-      <c r="C72" s="125"/>
+      <c r="A72" s="142"/>
+      <c r="B72" s="144"/>
+      <c r="C72" s="156"/>
       <c r="D72" s="65" t="s">
         <v>255</v>
       </c>
@@ -24823,9 +25411,9 @@
       <c r="J72" s="63"/>
     </row>
     <row r="73" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="121"/>
-      <c r="B73" s="113"/>
-      <c r="C73" s="125"/>
+      <c r="A73" s="142"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="156"/>
       <c r="D73" s="65"/>
       <c r="E73" s="58" t="s">
         <v>258</v>
@@ -24839,9 +25427,9 @@
       <c r="J73" s="63"/>
     </row>
     <row r="74" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="121"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="125"/>
+      <c r="A74" s="142"/>
+      <c r="B74" s="144"/>
+      <c r="C74" s="156"/>
       <c r="D74" s="65"/>
       <c r="E74" s="58" t="s">
         <v>260</v>
@@ -24855,9 +25443,9 @@
       <c r="J74" s="63"/>
     </row>
     <row r="75" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="121"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="125"/>
+      <c r="A75" s="142"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="156"/>
       <c r="D75" s="65"/>
       <c r="E75" s="58" t="s">
         <v>262</v>
@@ -24871,9 +25459,9 @@
       <c r="J75" s="63"/>
     </row>
     <row r="76" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="121"/>
-      <c r="B76" s="113"/>
-      <c r="C76" s="124"/>
+      <c r="A76" s="142"/>
+      <c r="B76" s="144"/>
+      <c r="C76" s="155"/>
       <c r="D76" s="65"/>
       <c r="E76" s="58" t="s">
         <v>264</v>
@@ -24887,8 +25475,8 @@
       <c r="J76" s="63"/>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="121"/>
-      <c r="B77" s="114"/>
+      <c r="A77" s="142"/>
+      <c r="B77" s="145"/>
       <c r="C77" s="66" t="s">
         <v>160</v>
       </c>
@@ -24905,11 +25493,11 @@
       <c r="J77" s="63"/>
     </row>
     <row r="78" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="121"/>
-      <c r="B78" s="112" t="s">
+      <c r="A78" s="142"/>
+      <c r="B78" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="115" t="s">
+      <c r="C78" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D78" s="65" t="s">
@@ -24925,9 +25513,9 @@
       <c r="J78" s="63"/>
     </row>
     <row r="79" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="121"/>
-      <c r="B79" s="113"/>
-      <c r="C79" s="116"/>
+      <c r="A79" s="142"/>
+      <c r="B79" s="144"/>
+      <c r="C79" s="147"/>
       <c r="D79" s="65"/>
       <c r="E79" s="58"/>
       <c r="F79" s="59"/>
@@ -24937,9 +25525,9 @@
       <c r="J79" s="63"/>
     </row>
     <row r="80" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="121"/>
-      <c r="B80" s="113"/>
-      <c r="C80" s="116"/>
+      <c r="A80" s="142"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="147"/>
       <c r="D80" s="65"/>
       <c r="E80" s="58"/>
       <c r="F80" s="59"/>
@@ -24949,8 +25537,8 @@
       <c r="J80" s="63"/>
     </row>
     <row r="81" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="121"/>
-      <c r="B81" s="114"/>
+      <c r="A81" s="142"/>
+      <c r="B81" s="145"/>
       <c r="C81" s="66" t="s">
         <v>160</v>
       </c>
@@ -24965,8 +25553,8 @@
       <c r="J81" s="63"/>
     </row>
     <row r="82" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="121"/>
-      <c r="B82" s="112" t="s">
+      <c r="A82" s="142"/>
+      <c r="B82" s="143" t="s">
         <v>271</v>
       </c>
       <c r="C82" s="66" t="s">
@@ -24987,8 +25575,8 @@
       <c r="J82" s="63"/>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="121"/>
-      <c r="B83" s="114"/>
+      <c r="A83" s="142"/>
+      <c r="B83" s="145"/>
       <c r="C83" s="66" t="s">
         <v>160</v>
       </c>
@@ -25007,11 +25595,11 @@
       <c r="J83" s="63"/>
     </row>
     <row r="84" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="121"/>
-      <c r="B84" s="112" t="s">
+      <c r="A84" s="142"/>
+      <c r="B84" s="143" t="s">
         <v>278</v>
       </c>
-      <c r="C84" s="123" t="s">
+      <c r="C84" s="154" t="s">
         <v>216</v>
       </c>
       <c r="D84" s="65" t="s">
@@ -25029,9 +25617,9 @@
       <c r="J84" s="63"/>
     </row>
     <row r="85" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="121"/>
-      <c r="B85" s="114"/>
-      <c r="C85" s="124"/>
+      <c r="A85" s="142"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="155"/>
       <c r="D85" s="65" t="s">
         <v>282</v>
       </c>
@@ -25045,11 +25633,11 @@
       <c r="J85" s="63"/>
     </row>
     <row r="86" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="121"/>
-      <c r="B86" s="112" t="s">
+      <c r="A86" s="142"/>
+      <c r="B86" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="C86" s="123" t="s">
+      <c r="C86" s="154" t="s">
         <v>285</v>
       </c>
       <c r="D86" s="65" t="s">
@@ -25065,9 +25653,9 @@
       <c r="J86" s="63"/>
     </row>
     <row r="87" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="121"/>
-      <c r="B87" s="114"/>
-      <c r="C87" s="124"/>
+      <c r="A87" s="142"/>
+      <c r="B87" s="145"/>
+      <c r="C87" s="155"/>
       <c r="D87" s="65" t="s">
         <v>288</v>
       </c>
@@ -25079,11 +25667,11 @@
       <c r="J87" s="63"/>
     </row>
     <row r="88" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="121"/>
-      <c r="B88" s="112" t="s">
+      <c r="A88" s="142"/>
+      <c r="B88" s="143" t="s">
         <v>289</v>
       </c>
-      <c r="C88" s="123" t="s">
+      <c r="C88" s="154" t="s">
         <v>285</v>
       </c>
       <c r="D88" s="65" t="s">
@@ -25099,9 +25687,9 @@
       <c r="J88" s="63"/>
     </row>
     <row r="89" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="121"/>
-      <c r="B89" s="114"/>
-      <c r="C89" s="124"/>
+      <c r="A89" s="142"/>
+      <c r="B89" s="145"/>
+      <c r="C89" s="155"/>
       <c r="D89" s="65" t="s">
         <v>291</v>
       </c>
@@ -25113,11 +25701,11 @@
       <c r="J89" s="63"/>
     </row>
     <row r="90" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="121"/>
-      <c r="B90" s="112" t="s">
+      <c r="A90" s="142"/>
+      <c r="B90" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="C90" s="115" t="s">
+      <c r="C90" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D90" s="65" t="s">
@@ -25131,9 +25719,9 @@
       <c r="J90" s="63"/>
     </row>
     <row r="91" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="121"/>
-      <c r="B91" s="113"/>
-      <c r="C91" s="116"/>
+      <c r="A91" s="142"/>
+      <c r="B91" s="144"/>
+      <c r="C91" s="147"/>
       <c r="D91" s="65"/>
       <c r="E91" s="58"/>
       <c r="F91" s="59"/>
@@ -25143,9 +25731,9 @@
       <c r="J91" s="63"/>
     </row>
     <row r="92" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="121"/>
-      <c r="B92" s="113"/>
-      <c r="C92" s="116"/>
+      <c r="A92" s="142"/>
+      <c r="B92" s="144"/>
+      <c r="C92" s="147"/>
       <c r="D92" s="65" t="s">
         <v>293</v>
       </c>
@@ -25157,8 +25745,8 @@
       <c r="J92" s="63"/>
     </row>
     <row r="93" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="121"/>
-      <c r="B93" s="114"/>
+      <c r="A93" s="142"/>
+      <c r="B93" s="145"/>
       <c r="C93" s="66" t="s">
         <v>160</v>
       </c>
@@ -25173,13 +25761,13 @@
       <c r="J93" s="63"/>
     </row>
     <row r="94" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="120" t="s">
+      <c r="A94" s="141" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="112" t="s">
+      <c r="B94" s="143" t="s">
         <v>296</v>
       </c>
-      <c r="C94" s="115" t="s">
+      <c r="C94" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="65" t="s">
@@ -25195,9 +25783,9 @@
       <c r="J94" s="63"/>
     </row>
     <row r="95" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="121"/>
-      <c r="B95" s="113"/>
-      <c r="C95" s="116"/>
+      <c r="A95" s="142"/>
+      <c r="B95" s="144"/>
+      <c r="C95" s="147"/>
       <c r="D95" s="65" t="s">
         <v>299</v>
       </c>
@@ -25209,9 +25797,9 @@
       <c r="J95" s="63"/>
     </row>
     <row r="96" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="121"/>
-      <c r="B96" s="113"/>
-      <c r="C96" s="116"/>
+      <c r="A96" s="142"/>
+      <c r="B96" s="144"/>
+      <c r="C96" s="147"/>
       <c r="D96" s="65"/>
       <c r="E96" s="58"/>
       <c r="F96" s="59"/>
@@ -25221,8 +25809,8 @@
       <c r="J96" s="63"/>
     </row>
     <row r="97" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="121"/>
-      <c r="B97" s="114"/>
+      <c r="A97" s="142"/>
+      <c r="B97" s="145"/>
       <c r="C97" s="66" t="s">
         <v>160</v>
       </c>
@@ -25239,11 +25827,11 @@
       <c r="J97" s="63"/>
     </row>
     <row r="98" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="121"/>
-      <c r="B98" s="112" t="s">
+      <c r="A98" s="142"/>
+      <c r="B98" s="143" t="s">
         <v>301</v>
       </c>
-      <c r="C98" s="115" t="s">
+      <c r="C98" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D98" s="65" t="s">
@@ -25257,9 +25845,9 @@
       <c r="J98" s="63"/>
     </row>
     <row r="99" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="121"/>
-      <c r="B99" s="113"/>
-      <c r="C99" s="116"/>
+      <c r="A99" s="142"/>
+      <c r="B99" s="144"/>
+      <c r="C99" s="147"/>
       <c r="D99" s="65" t="s">
         <v>303</v>
       </c>
@@ -25271,9 +25859,9 @@
       <c r="J99" s="63"/>
     </row>
     <row r="100" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="121"/>
-      <c r="B100" s="113"/>
-      <c r="C100" s="116"/>
+      <c r="A100" s="142"/>
+      <c r="B100" s="144"/>
+      <c r="C100" s="147"/>
       <c r="D100" s="65" t="s">
         <v>304</v>
       </c>
@@ -25285,9 +25873,9 @@
       <c r="J100" s="63"/>
     </row>
     <row r="101" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="121"/>
-      <c r="B101" s="113"/>
-      <c r="C101" s="122"/>
+      <c r="A101" s="142"/>
+      <c r="B101" s="144"/>
+      <c r="C101" s="148"/>
       <c r="D101" s="65" t="s">
         <v>305</v>
       </c>
@@ -25299,9 +25887,9 @@
       <c r="J101" s="63"/>
     </row>
     <row r="102" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="121"/>
-      <c r="B102" s="113"/>
-      <c r="C102" s="123" t="s">
+      <c r="A102" s="142"/>
+      <c r="B102" s="144"/>
+      <c r="C102" s="154" t="s">
         <v>160</v>
       </c>
       <c r="D102" s="65" t="s">
@@ -25321,9 +25909,9 @@
       <c r="J102" s="63"/>
     </row>
     <row r="103" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="121"/>
-      <c r="B103" s="114"/>
-      <c r="C103" s="124"/>
+      <c r="A103" s="142"/>
+      <c r="B103" s="145"/>
+      <c r="C103" s="155"/>
       <c r="D103" s="65" t="s">
         <v>300</v>
       </c>
@@ -25335,11 +25923,11 @@
       <c r="J103" s="63"/>
     </row>
     <row r="104" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="121"/>
-      <c r="B104" s="112" t="s">
+      <c r="A104" s="142"/>
+      <c r="B104" s="143" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="115" t="s">
+      <c r="C104" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D104" s="65" t="s">
@@ -25355,9 +25943,9 @@
       <c r="J104" s="63"/>
     </row>
     <row r="105" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="121"/>
-      <c r="B105" s="113"/>
-      <c r="C105" s="116"/>
+      <c r="A105" s="142"/>
+      <c r="B105" s="144"/>
+      <c r="C105" s="147"/>
       <c r="D105" s="65" t="s">
         <v>313</v>
       </c>
@@ -25369,9 +25957,9 @@
       <c r="J105" s="63"/>
     </row>
     <row r="106" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="121"/>
-      <c r="B106" s="113"/>
-      <c r="C106" s="116"/>
+      <c r="A106" s="142"/>
+      <c r="B106" s="144"/>
+      <c r="C106" s="147"/>
       <c r="D106" s="65" t="s">
         <v>314</v>
       </c>
@@ -25383,9 +25971,9 @@
       <c r="J106" s="63"/>
     </row>
     <row r="107" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="121"/>
-      <c r="B107" s="113"/>
-      <c r="C107" s="116"/>
+      <c r="A107" s="142"/>
+      <c r="B107" s="144"/>
+      <c r="C107" s="147"/>
       <c r="D107" s="65" t="s">
         <v>187</v>
       </c>
@@ -25397,9 +25985,9 @@
       <c r="J107" s="63"/>
     </row>
     <row r="108" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="121"/>
-      <c r="B108" s="113"/>
-      <c r="C108" s="122"/>
+      <c r="A108" s="142"/>
+      <c r="B108" s="144"/>
+      <c r="C108" s="148"/>
       <c r="D108" s="65" t="s">
         <v>184</v>
       </c>
@@ -25411,8 +25999,8 @@
       <c r="J108" s="63"/>
     </row>
     <row r="109" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="121"/>
-      <c r="B109" s="114"/>
+      <c r="A109" s="142"/>
+      <c r="B109" s="145"/>
       <c r="C109" s="66" t="s">
         <v>160</v>
       </c>
@@ -25427,11 +26015,11 @@
       <c r="J109" s="63"/>
     </row>
     <row r="110" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="121"/>
-      <c r="B110" s="112" t="s">
+      <c r="A110" s="142"/>
+      <c r="B110" s="143" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="115" t="s">
+      <c r="C110" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D110" s="65" t="s">
@@ -25445,9 +26033,9 @@
       <c r="J110" s="63"/>
     </row>
     <row r="111" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="121"/>
-      <c r="B111" s="113"/>
-      <c r="C111" s="116"/>
+      <c r="A111" s="142"/>
+      <c r="B111" s="144"/>
+      <c r="C111" s="147"/>
       <c r="D111" s="65"/>
       <c r="E111" s="58"/>
       <c r="F111" s="59"/>
@@ -25457,9 +26045,9 @@
       <c r="J111" s="63"/>
     </row>
     <row r="112" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="121"/>
-      <c r="B112" s="114"/>
-      <c r="C112" s="116"/>
+      <c r="A112" s="142"/>
+      <c r="B112" s="145"/>
+      <c r="C112" s="147"/>
       <c r="D112" s="65"/>
       <c r="E112" s="58"/>
       <c r="F112" s="59"/>
@@ -25469,11 +26057,11 @@
       <c r="J112" s="63"/>
     </row>
     <row r="113" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="121"/>
-      <c r="B113" s="112" t="s">
+      <c r="A113" s="142"/>
+      <c r="B113" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="115" t="s">
+      <c r="C113" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D113" s="65" t="s">
@@ -25487,9 +26075,9 @@
       <c r="J113" s="63"/>
     </row>
     <row r="114" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="121"/>
-      <c r="B114" s="113"/>
-      <c r="C114" s="116"/>
+      <c r="A114" s="142"/>
+      <c r="B114" s="144"/>
+      <c r="C114" s="147"/>
       <c r="D114" s="65"/>
       <c r="E114" s="58"/>
       <c r="F114" s="59"/>
@@ -25499,9 +26087,9 @@
       <c r="J114" s="63"/>
     </row>
     <row r="115" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="121"/>
-      <c r="B115" s="113"/>
-      <c r="C115" s="116"/>
+      <c r="A115" s="142"/>
+      <c r="B115" s="144"/>
+      <c r="C115" s="147"/>
       <c r="D115" s="65"/>
       <c r="E115" s="58"/>
       <c r="F115" s="59"/>
@@ -25511,8 +26099,8 @@
       <c r="J115" s="63"/>
     </row>
     <row r="116" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="121"/>
-      <c r="B116" s="114"/>
+      <c r="A116" s="142"/>
+      <c r="B116" s="145"/>
       <c r="C116" s="66" t="s">
         <v>160</v>
       </c>
@@ -25529,13 +26117,13 @@
       <c r="J116" s="63"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="117" t="s">
+      <c r="A117" s="157" t="s">
         <v>321</v>
       </c>
-      <c r="B117" s="112" t="s">
+      <c r="B117" s="143" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="107"/>
+      <c r="C117" s="160"/>
       <c r="D117" s="65" t="s">
         <v>323</v>
       </c>
@@ -25547,9 +26135,9 @@
       <c r="J117" s="63"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="118"/>
-      <c r="B118" s="114"/>
-      <c r="C118" s="109"/>
+      <c r="A118" s="158"/>
+      <c r="B118" s="145"/>
+      <c r="C118" s="161"/>
       <c r="D118" s="65" t="s">
         <v>324</v>
       </c>
@@ -25561,11 +26149,11 @@
       <c r="J118" s="63"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="118"/>
-      <c r="B119" s="112" t="s">
+      <c r="A119" s="158"/>
+      <c r="B119" s="143" t="s">
         <v>325</v>
       </c>
-      <c r="C119" s="107"/>
+      <c r="C119" s="160"/>
       <c r="D119" s="65" t="s">
         <v>326</v>
       </c>
@@ -25577,9 +26165,9 @@
       <c r="J119" s="63"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="118"/>
-      <c r="B120" s="114"/>
-      <c r="C120" s="109"/>
+      <c r="A120" s="158"/>
+      <c r="B120" s="145"/>
+      <c r="C120" s="161"/>
       <c r="D120" s="65" t="s">
         <v>327</v>
       </c>
@@ -25591,11 +26179,11 @@
       <c r="J120" s="63"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="118"/>
-      <c r="B121" s="112" t="s">
+      <c r="A121" s="158"/>
+      <c r="B121" s="143" t="s">
         <v>328</v>
       </c>
-      <c r="C121" s="107"/>
+      <c r="C121" s="160"/>
       <c r="D121" s="65" t="s">
         <v>329</v>
       </c>
@@ -25607,9 +26195,9 @@
       <c r="J121" s="63"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="118"/>
-      <c r="B122" s="113"/>
-      <c r="C122" s="108"/>
+      <c r="A122" s="158"/>
+      <c r="B122" s="144"/>
+      <c r="C122" s="162"/>
       <c r="D122" s="65" t="s">
         <v>330</v>
       </c>
@@ -25621,9 +26209,9 @@
       <c r="J122" s="63"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="118"/>
-      <c r="B123" s="113"/>
-      <c r="C123" s="108"/>
+      <c r="A123" s="158"/>
+      <c r="B123" s="144"/>
+      <c r="C123" s="162"/>
       <c r="D123" s="65" t="s">
         <v>331</v>
       </c>
@@ -25635,9 +26223,9 @@
       <c r="J123" s="63"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="118"/>
-      <c r="B124" s="113"/>
-      <c r="C124" s="108"/>
+      <c r="A124" s="158"/>
+      <c r="B124" s="144"/>
+      <c r="C124" s="162"/>
       <c r="D124" s="65" t="s">
         <v>332</v>
       </c>
@@ -25649,9 +26237,9 @@
       <c r="J124" s="63"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="118"/>
-      <c r="B125" s="114"/>
-      <c r="C125" s="109"/>
+      <c r="A125" s="158"/>
+      <c r="B125" s="145"/>
+      <c r="C125" s="161"/>
       <c r="D125" s="65" t="s">
         <v>333</v>
       </c>
@@ -25663,7 +26251,7 @@
       <c r="J125" s="63"/>
     </row>
     <row r="126" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A126" s="118"/>
+      <c r="A126" s="158"/>
       <c r="B126" s="74" t="s">
         <v>334</v>
       </c>
@@ -25679,11 +26267,11 @@
       <c r="J126" s="63"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="118"/>
-      <c r="B127" s="112" t="s">
+      <c r="A127" s="158"/>
+      <c r="B127" s="143" t="s">
         <v>336</v>
       </c>
-      <c r="C127" s="107"/>
+      <c r="C127" s="160"/>
       <c r="D127" s="65" t="s">
         <v>337</v>
       </c>
@@ -25697,9 +26285,9 @@
       <c r="J127" s="63"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="118"/>
-      <c r="B128" s="113"/>
-      <c r="C128" s="108"/>
+      <c r="A128" s="158"/>
+      <c r="B128" s="144"/>
+      <c r="C128" s="162"/>
       <c r="D128" s="65" t="s">
         <v>247</v>
       </c>
@@ -25711,9 +26299,9 @@
       <c r="J128" s="63"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="118"/>
-      <c r="B129" s="113"/>
-      <c r="C129" s="108"/>
+      <c r="A129" s="158"/>
+      <c r="B129" s="144"/>
+      <c r="C129" s="162"/>
       <c r="D129" s="65" t="s">
         <v>339</v>
       </c>
@@ -25725,9 +26313,9 @@
       <c r="J129" s="63"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="118"/>
-      <c r="B130" s="114"/>
-      <c r="C130" s="109"/>
+      <c r="A130" s="158"/>
+      <c r="B130" s="145"/>
+      <c r="C130" s="161"/>
       <c r="D130" s="65" t="s">
         <v>340</v>
       </c>
@@ -25739,11 +26327,11 @@
       <c r="J130" s="63"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="118"/>
-      <c r="B131" s="110" t="s">
+      <c r="A131" s="158"/>
+      <c r="B131" s="163" t="s">
         <v>341</v>
       </c>
-      <c r="C131" s="107"/>
+      <c r="C131" s="160"/>
       <c r="D131" s="65" t="s">
         <v>342</v>
       </c>
@@ -25755,9 +26343,9 @@
       <c r="J131" s="63"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="118"/>
-      <c r="B132" s="111"/>
-      <c r="C132" s="109"/>
+      <c r="A132" s="158"/>
+      <c r="B132" s="164"/>
+      <c r="C132" s="161"/>
       <c r="D132" s="65" t="s">
         <v>343</v>
       </c>
@@ -25769,7 +26357,7 @@
       <c r="J132" s="63"/>
     </row>
     <row r="133" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A133" s="118"/>
+      <c r="A133" s="158"/>
       <c r="B133" s="74" t="s">
         <v>344</v>
       </c>
@@ -25785,11 +26373,11 @@
       <c r="J133" s="63"/>
     </row>
     <row r="134" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="118"/>
-      <c r="B134" s="112" t="s">
+      <c r="A134" s="158"/>
+      <c r="B134" s="143" t="s">
         <v>346</v>
       </c>
-      <c r="C134" s="107"/>
+      <c r="C134" s="160"/>
       <c r="D134" s="65" t="s">
         <v>347</v>
       </c>
@@ -25801,9 +26389,9 @@
       <c r="J134" s="63"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="118"/>
-      <c r="B135" s="113"/>
-      <c r="C135" s="108"/>
+      <c r="A135" s="158"/>
+      <c r="B135" s="144"/>
+      <c r="C135" s="162"/>
       <c r="D135" s="65" t="s">
         <v>348</v>
       </c>
@@ -25815,9 +26403,9 @@
       <c r="J135" s="63"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="118"/>
-      <c r="B136" s="114"/>
-      <c r="C136" s="109"/>
+      <c r="A136" s="158"/>
+      <c r="B136" s="145"/>
+      <c r="C136" s="161"/>
       <c r="D136" s="65" t="s">
         <v>349</v>
       </c>
@@ -25829,7 +26417,7 @@
       <c r="J136" s="63"/>
     </row>
     <row r="137" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A137" s="118"/>
+      <c r="A137" s="158"/>
       <c r="B137" s="74" t="s">
         <v>350</v>
       </c>
@@ -25845,7 +26433,7 @@
       <c r="J137" s="63"/>
     </row>
     <row r="138" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A138" s="118"/>
+      <c r="A138" s="158"/>
       <c r="B138" s="74" t="s">
         <v>352</v>
       </c>
@@ -25861,7 +26449,7 @@
       <c r="J138" s="63"/>
     </row>
     <row r="139" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A139" s="118"/>
+      <c r="A139" s="158"/>
       <c r="B139" s="74" t="s">
         <v>354</v>
       </c>
@@ -25877,7 +26465,7 @@
       <c r="J139" s="63"/>
     </row>
     <row r="140" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A140" s="119"/>
+      <c r="A140" s="159"/>
       <c r="B140" s="74" t="s">
         <v>356</v>
       </c>
@@ -25894,6 +26482,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="A117:A140"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="A94:A116"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B33:B46"/>
+    <mergeCell ref="C33:C44"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A93"/>
     <mergeCell ref="B3:B13"/>
@@ -25910,69 +26561,6 @@
     <mergeCell ref="D18:D23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B33:B46"/>
-    <mergeCell ref="C33:C44"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="A117:A140"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="A94:A116"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C134:C136"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目总表.xlsx
+++ b/项目总表.xlsx
@@ -6123,15 +6123,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.00005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.0001 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0001/0.00005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6907,41 +6907,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6967,6 +6934,15 @@
     <xf numFmtId="0" fontId="8" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6974,6 +6950,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6994,6 +6979,24 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7009,11 +7012,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7030,23 +7042,23 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7057,35 +7069,23 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="11" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7405,33 +7405,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="108" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="109" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="125" t="s">
         <v>372</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="122" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="85" t="s">
         <v>361</v>
       </c>
@@ -7450,242 +7450,249 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="114" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="123"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="125"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="124"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="125"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="124"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="113"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="125"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="124"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="113"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="125"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="124"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="113"/>
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="109" t="s">
         <v>395</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="124"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="113"/>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="126"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="124"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="113"/>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="126"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="124"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="113"/>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="126"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="124"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="113"/>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="124"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="109" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="124"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="126"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="124"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="126"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="124"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="113"/>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="126"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="124"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="113"/>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="121"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="124"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="113"/>
     </row>
     <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="109" t="s">
         <v>365</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="124"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="113"/>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="126"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="124"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="113"/>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="126"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="124"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="113"/>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="126"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="124"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="113"/>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="124"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="109" t="s">
         <v>366</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="124"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="113"/>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="126"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="124"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="113"/>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="126"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="124"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="113"/>
     </row>
     <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="126"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="124"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="113"/>
     </row>
     <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="121"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="124"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D4:D28"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C28"/>
+    <mergeCell ref="E4:E8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:G2"/>
@@ -7702,13 +7709,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F4:F28"/>
     <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D4:D28"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C28"/>
-    <mergeCell ref="E4:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7720,10 +7720,10 @@
   <dimension ref="A1:AB203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD16" sqref="AD16"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8211,7 +8211,7 @@
       <c r="Y6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="165"/>
+      <c r="AB6" s="107"/>
     </row>
     <row r="7" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -8289,7 +8289,7 @@
       <c r="Y7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AB7" s="165"/>
+      <c r="AB7" s="107"/>
     </row>
     <row r="8" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -8367,7 +8367,7 @@
       <c r="Y8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AB8" s="165"/>
+      <c r="AB8" s="107"/>
     </row>
     <row r="9" spans="1:28" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -8445,7 +8445,7 @@
       <c r="Y9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AB9" s="165"/>
+      <c r="AB9" s="107"/>
     </row>
     <row r="10" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -8523,7 +8523,7 @@
       <c r="Y10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AB10" s="165"/>
+      <c r="AB10" s="107"/>
     </row>
     <row r="11" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -8601,14 +8601,14 @@
       <c r="Y11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AB11" s="165"/>
-    </row>
-    <row r="12" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AB11" s="107"/>
+    </row>
+    <row r="12" spans="1:28" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="166" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C12" s="8">
         <v>1E-3</v>
@@ -8638,7 +8638,7 @@
         <v>2E-3</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M12" s="8">
         <v>1E-3</v>
@@ -8671,7 +8671,7 @@
         <v>0.5</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X12" s="8">
         <v>2.0000000000000001E-4</v>
@@ -8679,7 +8679,7 @@
       <c r="Y12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AB12" s="165"/>
+      <c r="AB12" s="107"/>
     </row>
     <row r="13" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -8721,7 +8721,7 @@
         <v>4</v>
       </c>
       <c r="Y13" s="8"/>
-      <c r="AB13" s="165"/>
+      <c r="AB13" s="107"/>
     </row>
     <row r="14" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -8799,7 +8799,7 @@
       <c r="Y14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AB14" s="165"/>
+      <c r="AB14" s="107"/>
     </row>
     <row r="15" spans="1:28" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -8877,7 +8877,7 @@
       <c r="Y15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB15" s="165"/>
+      <c r="AB15" s="107"/>
     </row>
     <row r="16" spans="1:28" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
@@ -8955,7 +8955,7 @@
       <c r="Y16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB16" s="165"/>
+      <c r="AB16" s="107"/>
     </row>
     <row r="17" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
@@ -9033,7 +9033,7 @@
       <c r="Y17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB17" s="165"/>
+      <c r="AB17" s="107"/>
     </row>
     <row r="18" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -9079,7 +9079,7 @@
         <v>8</v>
       </c>
       <c r="Y18" s="9"/>
-      <c r="AB18" s="165"/>
+      <c r="AB18" s="107"/>
     </row>
     <row r="19" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
@@ -9111,7 +9111,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
-      <c r="AB19" s="165"/>
+      <c r="AB19" s="107"/>
     </row>
     <row r="20" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
@@ -9189,7 +9189,7 @@
       <c r="Y20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AB20" s="165"/>
+      <c r="AB20" s="107"/>
     </row>
     <row r="21" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
@@ -9267,7 +9267,7 @@
       <c r="Y21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AB21" s="165"/>
+      <c r="AB21" s="107"/>
     </row>
     <row r="22" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
@@ -9345,7 +9345,7 @@
       <c r="Y22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AB22" s="165"/>
+      <c r="AB22" s="107"/>
     </row>
     <row r="23" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
@@ -9423,7 +9423,7 @@
       <c r="Y23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AB23" s="165"/>
+      <c r="AB23" s="107"/>
     </row>
     <row r="24" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
@@ -9501,7 +9501,7 @@
       <c r="Y24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AB24" s="165"/>
+      <c r="AB24" s="107"/>
     </row>
     <row r="25" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
@@ -9579,7 +9579,7 @@
       <c r="Y25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AB25" s="165"/>
+      <c r="AB25" s="107"/>
     </row>
     <row r="26" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
@@ -9657,7 +9657,7 @@
       <c r="Y26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AB26" s="165"/>
+      <c r="AB26" s="107"/>
     </row>
     <row r="27" spans="1:28" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
@@ -23314,14 +23314,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
       <c r="G1" s="95"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -24130,10 +24130,10 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="137" t="s">
+      <c r="I13" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="138"/>
+      <c r="J13" s="139"/>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
@@ -24144,8 +24144,8 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24183,18 +24183,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -24229,16 +24229,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="161" t="s">
         <v>137</v>
       </c>
       <c r="E3" s="58" t="s">
@@ -24255,11 +24255,11 @@
       <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="142"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="152" t="s">
+      <c r="A4" s="156"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164" t="s">
         <v>141</v>
       </c>
       <c r="F4" s="59" t="s">
@@ -24273,11 +24273,11 @@
       <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="142"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="153"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="165"/>
       <c r="F5" s="59" t="s">
         <v>144</v>
       </c>
@@ -24287,10 +24287,10 @@
       <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="142"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="149" t="s">
+      <c r="A6" s="156"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="161" t="s">
         <v>145</v>
       </c>
       <c r="E6" s="58" t="s">
@@ -24305,10 +24305,10 @@
       <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="142"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="151"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="162"/>
       <c r="E7" s="58" t="s">
         <v>148</v>
       </c>
@@ -24321,10 +24321,10 @@
       <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="142"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="149" t="s">
+      <c r="A8" s="156"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="161" t="s">
         <v>150</v>
       </c>
       <c r="E8" s="58" t="s">
@@ -24339,10 +24339,10 @@
       <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="151"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="162"/>
       <c r="E9" s="58" t="s">
         <v>153</v>
       </c>
@@ -24353,9 +24353,9 @@
       <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="142"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="147"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="151"/>
       <c r="D10" s="64" t="s">
         <v>154</v>
       </c>
@@ -24373,9 +24373,9 @@
       <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="142"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="148"/>
+      <c r="A11" s="156"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="157"/>
       <c r="D11" s="64" t="s">
         <v>158</v>
       </c>
@@ -24389,9 +24389,9 @@
       <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="142"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="154" t="s">
+      <c r="A12" s="156"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="158" t="s">
         <v>160</v>
       </c>
       <c r="D12" s="65" t="s">
@@ -24411,9 +24411,9 @@
       <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="142"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="155"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="159"/>
       <c r="D13" s="65"/>
       <c r="E13" s="58"/>
       <c r="F13" s="59"/>
@@ -24425,14 +24425,14 @@
       <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="142"/>
-      <c r="B14" s="143" t="s">
+      <c r="A14" s="156"/>
+      <c r="B14" s="147" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="D14" s="161" t="s">
         <v>167</v>
       </c>
       <c r="E14" s="58" t="s">
@@ -24447,10 +24447,10 @@
       <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="142"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="151"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="162"/>
       <c r="E15" s="58" t="s">
         <v>141</v>
       </c>
@@ -24463,10 +24463,10 @@
       <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="142"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="149" t="s">
+      <c r="A16" s="156"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="161" t="s">
         <v>170</v>
       </c>
       <c r="E16" s="58" t="s">
@@ -24481,10 +24481,10 @@
       <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="142"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="151"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="162"/>
       <c r="E17" s="58" t="s">
         <v>148</v>
       </c>
@@ -24497,10 +24497,10 @@
       <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="142"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="149" t="s">
+      <c r="A18" s="156"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="161" t="s">
         <v>150</v>
       </c>
       <c r="E18" s="58" t="s">
@@ -24515,10 +24515,10 @@
       <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="142"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="150"/>
+      <c r="A19" s="156"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="58" t="s">
         <v>153</v>
       </c>
@@ -24531,10 +24531,10 @@
       <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="142"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="150"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="58"/>
       <c r="F20" s="59" t="s">
         <v>174</v>
@@ -24545,10 +24545,10 @@
       <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="142"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="150"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="163"/>
       <c r="E21" s="58"/>
       <c r="F21" s="59" t="s">
         <v>175</v>
@@ -24559,10 +24559,10 @@
       <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="142"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="150"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="163"/>
       <c r="E22" s="58"/>
       <c r="F22" s="59" t="s">
         <v>176</v>
@@ -24573,10 +24573,10 @@
       <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="142"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="151"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="58"/>
       <c r="F23" s="59" t="s">
         <v>177</v>
@@ -24587,12 +24587,12 @@
       <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="142"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="154" t="s">
+      <c r="A24" s="156"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="149" t="s">
+      <c r="D24" s="161" t="s">
         <v>178</v>
       </c>
       <c r="E24" s="58" t="s">
@@ -24611,10 +24611,10 @@
       <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="142"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="151"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="162"/>
       <c r="E25" s="58"/>
       <c r="F25" s="59"/>
       <c r="G25" s="60" t="s">
@@ -24625,14 +24625,14 @@
       <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="142"/>
-      <c r="B26" s="143" t="s">
+      <c r="A26" s="156"/>
+      <c r="B26" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="146" t="s">
+      <c r="C26" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="149" t="s">
+      <c r="D26" s="161" t="s">
         <v>184</v>
       </c>
       <c r="E26" s="58" t="s">
@@ -24647,10 +24647,10 @@
       <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="142"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="151"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="162"/>
       <c r="E27" s="58" t="s">
         <v>186</v>
       </c>
@@ -24661,10 +24661,10 @@
       <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="142"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="149" t="s">
+      <c r="A28" s="156"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="161" t="s">
         <v>187</v>
       </c>
       <c r="E28" s="58" t="s">
@@ -24679,10 +24679,10 @@
       <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="142"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="151"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="162"/>
       <c r="E29" s="58" t="s">
         <v>148</v>
       </c>
@@ -24693,10 +24693,10 @@
       <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="142"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="149" t="s">
+      <c r="A30" s="156"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="161" t="s">
         <v>189</v>
       </c>
       <c r="E30" s="58" t="s">
@@ -24711,10 +24711,10 @@
       <c r="J30" s="63"/>
     </row>
     <row r="31" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="142"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="151"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="162"/>
       <c r="E31" s="58" t="s">
         <v>153</v>
       </c>
@@ -24727,8 +24727,8 @@
       <c r="J31" s="63"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="142"/>
-      <c r="B32" s="145"/>
+      <c r="A32" s="156"/>
+      <c r="B32" s="149"/>
       <c r="C32" s="66" t="s">
         <v>160</v>
       </c>
@@ -24745,14 +24745,14 @@
       <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="142"/>
-      <c r="B33" s="143" t="s">
+      <c r="A33" s="156"/>
+      <c r="B33" s="147" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="146" t="s">
+      <c r="C33" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="149" t="s">
+      <c r="D33" s="161" t="s">
         <v>195</v>
       </c>
       <c r="E33" s="58" t="s">
@@ -24767,10 +24767,10 @@
       <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="142"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="151"/>
+      <c r="A34" s="156"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="162"/>
       <c r="E34" s="58"/>
       <c r="F34" s="59" t="s">
         <v>196</v>
@@ -24781,10 +24781,10 @@
       <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="142"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="149" t="s">
+      <c r="A35" s="156"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="161" t="s">
         <v>197</v>
       </c>
       <c r="E35" s="58" t="s">
@@ -24799,10 +24799,10 @@
       <c r="J35" s="63"/>
     </row>
     <row r="36" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="142"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="150"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="58"/>
       <c r="F36" s="59" t="s">
         <v>198</v>
@@ -24813,10 +24813,10 @@
       <c r="J36" s="63"/>
     </row>
     <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="142"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="150"/>
+      <c r="A37" s="156"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="58"/>
       <c r="F37" s="59" t="s">
         <v>199</v>
@@ -24827,10 +24827,10 @@
       <c r="J37" s="63"/>
     </row>
     <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="142"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="150"/>
+      <c r="A38" s="156"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="58" t="s">
         <v>187</v>
       </c>
@@ -24843,10 +24843,10 @@
       <c r="J38" s="63"/>
     </row>
     <row r="39" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="142"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="151"/>
+      <c r="A39" s="156"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="162"/>
       <c r="E39" s="58" t="s">
         <v>184</v>
       </c>
@@ -24859,10 +24859,10 @@
       <c r="J39" s="63"/>
     </row>
     <row r="40" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="142"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="149" t="s">
+      <c r="A40" s="156"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="161" t="s">
         <v>200</v>
       </c>
       <c r="E40" s="58" t="s">
@@ -24877,10 +24877,10 @@
       <c r="J40" s="63"/>
     </row>
     <row r="41" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="142"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="150"/>
+      <c r="A41" s="156"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="58" t="s">
         <v>187</v>
       </c>
@@ -24893,10 +24893,10 @@
       <c r="J41" s="63"/>
     </row>
     <row r="42" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="142"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="150"/>
+      <c r="A42" s="156"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="58" t="s">
         <v>153</v>
       </c>
@@ -24909,10 +24909,10 @@
       <c r="J42" s="63"/>
     </row>
     <row r="43" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="142"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="150"/>
+      <c r="A43" s="156"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="58"/>
       <c r="F43" s="59" t="s">
         <v>201</v>
@@ -24923,10 +24923,10 @@
       <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="142"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="151"/>
+      <c r="A44" s="156"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="162"/>
       <c r="E44" s="58" t="s">
         <v>202</v>
       </c>
@@ -24939,12 +24939,12 @@
       <c r="J44" s="63"/>
     </row>
     <row r="45" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="142"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="154" t="s">
+      <c r="A45" s="156"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="149" t="s">
+      <c r="D45" s="161" t="s">
         <v>200</v>
       </c>
       <c r="E45" s="58" t="s">
@@ -24959,10 +24959,10 @@
       <c r="J45" s="63"/>
     </row>
     <row r="46" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="142"/>
-      <c r="B46" s="145"/>
-      <c r="C46" s="155"/>
-      <c r="D46" s="151"/>
+      <c r="A46" s="156"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="162"/>
       <c r="E46" s="58"/>
       <c r="F46" s="59" t="s">
         <v>193</v>
@@ -24973,11 +24973,11 @@
       <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="142"/>
-      <c r="B47" s="143" t="s">
+      <c r="A47" s="156"/>
+      <c r="B47" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="146" t="s">
+      <c r="C47" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D47" s="65" t="s">
@@ -24995,9 +24995,9 @@
       <c r="J47" s="63"/>
     </row>
     <row r="48" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="142"/>
-      <c r="B48" s="144"/>
-      <c r="C48" s="147"/>
+      <c r="A48" s="156"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="151"/>
       <c r="D48" s="65" t="s">
         <v>210</v>
       </c>
@@ -25011,9 +25011,9 @@
       <c r="J48" s="63"/>
     </row>
     <row r="49" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="142"/>
-      <c r="B49" s="144"/>
-      <c r="C49" s="147"/>
+      <c r="A49" s="156"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="151"/>
       <c r="D49" s="65" t="s">
         <v>212</v>
       </c>
@@ -25025,8 +25025,8 @@
       <c r="J49" s="63"/>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="142"/>
-      <c r="B50" s="145"/>
+      <c r="A50" s="156"/>
+      <c r="B50" s="149"/>
       <c r="C50" s="69" t="s">
         <v>160</v>
       </c>
@@ -25043,11 +25043,11 @@
       <c r="J50" s="63"/>
     </row>
     <row r="51" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="142"/>
-      <c r="B51" s="143" t="s">
+      <c r="A51" s="156"/>
+      <c r="B51" s="147" t="s">
         <v>215</v>
       </c>
-      <c r="C51" s="154" t="s">
+      <c r="C51" s="158" t="s">
         <v>216</v>
       </c>
       <c r="D51" s="65" t="s">
@@ -25063,9 +25063,9 @@
       <c r="J51" s="63"/>
     </row>
     <row r="52" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="142"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="156"/>
+      <c r="A52" s="156"/>
+      <c r="B52" s="148"/>
+      <c r="C52" s="160"/>
       <c r="D52" s="65" t="s">
         <v>219</v>
       </c>
@@ -25081,10 +25081,10 @@
       <c r="J52" s="63"/>
     </row>
     <row r="53" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="142"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="149" t="s">
+      <c r="A53" s="156"/>
+      <c r="B53" s="148"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="161" t="s">
         <v>222</v>
       </c>
       <c r="E53" s="58" t="s">
@@ -25099,10 +25099,10 @@
       <c r="J53" s="63"/>
     </row>
     <row r="54" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="142"/>
-      <c r="B54" s="144"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="150"/>
+      <c r="A54" s="156"/>
+      <c r="B54" s="148"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="58" t="s">
         <v>225</v>
       </c>
@@ -25113,10 +25113,10 @@
       <c r="J54" s="63"/>
     </row>
     <row r="55" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="142"/>
-      <c r="B55" s="144"/>
-      <c r="C55" s="155"/>
-      <c r="D55" s="151"/>
+      <c r="A55" s="156"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="162"/>
       <c r="E55" s="58" t="s">
         <v>226</v>
       </c>
@@ -25127,12 +25127,12 @@
       <c r="J55" s="63"/>
     </row>
     <row r="56" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="142"/>
-      <c r="B56" s="144"/>
-      <c r="C56" s="154" t="s">
+      <c r="A56" s="156"/>
+      <c r="B56" s="148"/>
+      <c r="C56" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="149" t="s">
+      <c r="D56" s="161" t="s">
         <v>227</v>
       </c>
       <c r="E56" s="58" t="s">
@@ -25149,10 +25149,10 @@
       <c r="J56" s="63"/>
     </row>
     <row r="57" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="142"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="155"/>
-      <c r="D57" s="151"/>
+      <c r="A57" s="156"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="162"/>
       <c r="E57" s="58" t="s">
         <v>231</v>
       </c>
@@ -25163,11 +25163,11 @@
       <c r="J57" s="63"/>
     </row>
     <row r="58" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="142"/>
-      <c r="B58" s="143" t="s">
+      <c r="A58" s="156"/>
+      <c r="B58" s="147" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="146" t="s">
+      <c r="C58" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D58" s="65" t="s">
@@ -25185,9 +25185,9 @@
       <c r="J58" s="63"/>
     </row>
     <row r="59" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="142"/>
-      <c r="B59" s="144"/>
-      <c r="C59" s="147"/>
+      <c r="A59" s="156"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="151"/>
       <c r="D59" s="65" t="s">
         <v>236</v>
       </c>
@@ -25199,9 +25199,9 @@
       <c r="J59" s="63"/>
     </row>
     <row r="60" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="142"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="147"/>
+      <c r="A60" s="156"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="151"/>
       <c r="D60" s="65"/>
       <c r="E60" s="58"/>
       <c r="F60" s="59"/>
@@ -25211,8 +25211,8 @@
       <c r="J60" s="63"/>
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="142"/>
-      <c r="B61" s="145"/>
+      <c r="A61" s="156"/>
+      <c r="B61" s="149"/>
       <c r="C61" s="66" t="s">
         <v>160</v>
       </c>
@@ -25229,11 +25229,11 @@
       <c r="J61" s="63"/>
     </row>
     <row r="62" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="142"/>
-      <c r="B62" s="143" t="s">
+      <c r="A62" s="156"/>
+      <c r="B62" s="147" t="s">
         <v>239</v>
       </c>
-      <c r="C62" s="146" t="s">
+      <c r="C62" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D62" s="65" t="s">
@@ -25251,9 +25251,9 @@
       <c r="J62" s="63"/>
     </row>
     <row r="63" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="142"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="147"/>
+      <c r="A63" s="156"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="151"/>
       <c r="D63" s="65" t="s">
         <v>236</v>
       </c>
@@ -25265,9 +25265,9 @@
       <c r="J63" s="63"/>
     </row>
     <row r="64" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="142"/>
-      <c r="B64" s="144"/>
-      <c r="C64" s="147"/>
+      <c r="A64" s="156"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="151"/>
       <c r="D64" s="65"/>
       <c r="E64" s="58"/>
       <c r="F64" s="59"/>
@@ -25277,8 +25277,8 @@
       <c r="J64" s="63"/>
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="142"/>
-      <c r="B65" s="145"/>
+      <c r="A65" s="156"/>
+      <c r="B65" s="149"/>
       <c r="C65" s="66" t="s">
         <v>160</v>
       </c>
@@ -25295,11 +25295,11 @@
       <c r="J65" s="63"/>
     </row>
     <row r="66" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="142"/>
-      <c r="B66" s="143" t="s">
+      <c r="A66" s="156"/>
+      <c r="B66" s="147" t="s">
         <v>244</v>
       </c>
-      <c r="C66" s="146" t="s">
+      <c r="C66" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D66" s="65" t="s">
@@ -25313,9 +25313,9 @@
       <c r="J66" s="63"/>
     </row>
     <row r="67" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="142"/>
-      <c r="B67" s="144"/>
-      <c r="C67" s="147"/>
+      <c r="A67" s="156"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="151"/>
       <c r="D67" s="65"/>
       <c r="E67" s="58"/>
       <c r="F67" s="59"/>
@@ -25325,9 +25325,9 @@
       <c r="J67" s="63"/>
     </row>
     <row r="68" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="142"/>
-      <c r="B68" s="144"/>
-      <c r="C68" s="147"/>
+      <c r="A68" s="156"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="151"/>
       <c r="D68" s="65"/>
       <c r="E68" s="58"/>
       <c r="F68" s="59"/>
@@ -25337,8 +25337,8 @@
       <c r="J68" s="63"/>
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="142"/>
-      <c r="B69" s="145"/>
+      <c r="A69" s="156"/>
+      <c r="B69" s="149"/>
       <c r="C69" s="66" t="s">
         <v>160</v>
       </c>
@@ -25353,11 +25353,11 @@
       <c r="J69" s="63"/>
     </row>
     <row r="70" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="142"/>
-      <c r="B70" s="143" t="s">
+      <c r="A70" s="156"/>
+      <c r="B70" s="147" t="s">
         <v>247</v>
       </c>
-      <c r="C70" s="146" t="s">
+      <c r="C70" s="150" t="s">
         <v>248</v>
       </c>
       <c r="D70" s="65" t="s">
@@ -25375,9 +25375,9 @@
       <c r="J70" s="63"/>
     </row>
     <row r="71" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="142"/>
-      <c r="B71" s="144"/>
-      <c r="C71" s="156"/>
+      <c r="A71" s="156"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="160"/>
       <c r="D71" s="65" t="s">
         <v>252</v>
       </c>
@@ -25393,9 +25393,9 @@
       <c r="J71" s="63"/>
     </row>
     <row r="72" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="142"/>
-      <c r="B72" s="144"/>
-      <c r="C72" s="156"/>
+      <c r="A72" s="156"/>
+      <c r="B72" s="148"/>
+      <c r="C72" s="160"/>
       <c r="D72" s="65" t="s">
         <v>255</v>
       </c>
@@ -25411,9 +25411,9 @@
       <c r="J72" s="63"/>
     </row>
     <row r="73" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="142"/>
-      <c r="B73" s="144"/>
-      <c r="C73" s="156"/>
+      <c r="A73" s="156"/>
+      <c r="B73" s="148"/>
+      <c r="C73" s="160"/>
       <c r="D73" s="65"/>
       <c r="E73" s="58" t="s">
         <v>258</v>
@@ -25427,9 +25427,9 @@
       <c r="J73" s="63"/>
     </row>
     <row r="74" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="142"/>
-      <c r="B74" s="144"/>
-      <c r="C74" s="156"/>
+      <c r="A74" s="156"/>
+      <c r="B74" s="148"/>
+      <c r="C74" s="160"/>
       <c r="D74" s="65"/>
       <c r="E74" s="58" t="s">
         <v>260</v>
@@ -25443,9 +25443,9 @@
       <c r="J74" s="63"/>
     </row>
     <row r="75" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="142"/>
-      <c r="B75" s="144"/>
-      <c r="C75" s="156"/>
+      <c r="A75" s="156"/>
+      <c r="B75" s="148"/>
+      <c r="C75" s="160"/>
       <c r="D75" s="65"/>
       <c r="E75" s="58" t="s">
         <v>262</v>
@@ -25459,9 +25459,9 @@
       <c r="J75" s="63"/>
     </row>
     <row r="76" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="142"/>
-      <c r="B76" s="144"/>
-      <c r="C76" s="155"/>
+      <c r="A76" s="156"/>
+      <c r="B76" s="148"/>
+      <c r="C76" s="159"/>
       <c r="D76" s="65"/>
       <c r="E76" s="58" t="s">
         <v>264</v>
@@ -25475,8 +25475,8 @@
       <c r="J76" s="63"/>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="142"/>
-      <c r="B77" s="145"/>
+      <c r="A77" s="156"/>
+      <c r="B77" s="149"/>
       <c r="C77" s="66" t="s">
         <v>160</v>
       </c>
@@ -25493,11 +25493,11 @@
       <c r="J77" s="63"/>
     </row>
     <row r="78" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="142"/>
-      <c r="B78" s="143" t="s">
+      <c r="A78" s="156"/>
+      <c r="B78" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="146" t="s">
+      <c r="C78" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D78" s="65" t="s">
@@ -25513,9 +25513,9 @@
       <c r="J78" s="63"/>
     </row>
     <row r="79" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="142"/>
-      <c r="B79" s="144"/>
-      <c r="C79" s="147"/>
+      <c r="A79" s="156"/>
+      <c r="B79" s="148"/>
+      <c r="C79" s="151"/>
       <c r="D79" s="65"/>
       <c r="E79" s="58"/>
       <c r="F79" s="59"/>
@@ -25525,9 +25525,9 @@
       <c r="J79" s="63"/>
     </row>
     <row r="80" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="142"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="147"/>
+      <c r="A80" s="156"/>
+      <c r="B80" s="148"/>
+      <c r="C80" s="151"/>
       <c r="D80" s="65"/>
       <c r="E80" s="58"/>
       <c r="F80" s="59"/>
@@ -25537,8 +25537,8 @@
       <c r="J80" s="63"/>
     </row>
     <row r="81" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="142"/>
-      <c r="B81" s="145"/>
+      <c r="A81" s="156"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="66" t="s">
         <v>160</v>
       </c>
@@ -25553,8 +25553,8 @@
       <c r="J81" s="63"/>
     </row>
     <row r="82" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="142"/>
-      <c r="B82" s="143" t="s">
+      <c r="A82" s="156"/>
+      <c r="B82" s="147" t="s">
         <v>271</v>
       </c>
       <c r="C82" s="66" t="s">
@@ -25575,8 +25575,8 @@
       <c r="J82" s="63"/>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="142"/>
-      <c r="B83" s="145"/>
+      <c r="A83" s="156"/>
+      <c r="B83" s="149"/>
       <c r="C83" s="66" t="s">
         <v>160</v>
       </c>
@@ -25595,11 +25595,11 @@
       <c r="J83" s="63"/>
     </row>
     <row r="84" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="142"/>
-      <c r="B84" s="143" t="s">
+      <c r="A84" s="156"/>
+      <c r="B84" s="147" t="s">
         <v>278</v>
       </c>
-      <c r="C84" s="154" t="s">
+      <c r="C84" s="158" t="s">
         <v>216</v>
       </c>
       <c r="D84" s="65" t="s">
@@ -25617,9 +25617,9 @@
       <c r="J84" s="63"/>
     </row>
     <row r="85" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="142"/>
-      <c r="B85" s="145"/>
-      <c r="C85" s="155"/>
+      <c r="A85" s="156"/>
+      <c r="B85" s="149"/>
+      <c r="C85" s="159"/>
       <c r="D85" s="65" t="s">
         <v>282</v>
       </c>
@@ -25633,11 +25633,11 @@
       <c r="J85" s="63"/>
     </row>
     <row r="86" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="142"/>
-      <c r="B86" s="143" t="s">
+      <c r="A86" s="156"/>
+      <c r="B86" s="147" t="s">
         <v>284</v>
       </c>
-      <c r="C86" s="154" t="s">
+      <c r="C86" s="158" t="s">
         <v>285</v>
       </c>
       <c r="D86" s="65" t="s">
@@ -25653,9 +25653,9 @@
       <c r="J86" s="63"/>
     </row>
     <row r="87" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="142"/>
-      <c r="B87" s="145"/>
-      <c r="C87" s="155"/>
+      <c r="A87" s="156"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="159"/>
       <c r="D87" s="65" t="s">
         <v>288</v>
       </c>
@@ -25667,11 +25667,11 @@
       <c r="J87" s="63"/>
     </row>
     <row r="88" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="142"/>
-      <c r="B88" s="143" t="s">
+      <c r="A88" s="156"/>
+      <c r="B88" s="147" t="s">
         <v>289</v>
       </c>
-      <c r="C88" s="154" t="s">
+      <c r="C88" s="158" t="s">
         <v>285</v>
       </c>
       <c r="D88" s="65" t="s">
@@ -25687,9 +25687,9 @@
       <c r="J88" s="63"/>
     </row>
     <row r="89" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="142"/>
-      <c r="B89" s="145"/>
-      <c r="C89" s="155"/>
+      <c r="A89" s="156"/>
+      <c r="B89" s="149"/>
+      <c r="C89" s="159"/>
       <c r="D89" s="65" t="s">
         <v>291</v>
       </c>
@@ -25701,11 +25701,11 @@
       <c r="J89" s="63"/>
     </row>
     <row r="90" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="142"/>
-      <c r="B90" s="143" t="s">
+      <c r="A90" s="156"/>
+      <c r="B90" s="147" t="s">
         <v>155</v>
       </c>
-      <c r="C90" s="146" t="s">
+      <c r="C90" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D90" s="65" t="s">
@@ -25719,9 +25719,9 @@
       <c r="J90" s="63"/>
     </row>
     <row r="91" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="142"/>
-      <c r="B91" s="144"/>
-      <c r="C91" s="147"/>
+      <c r="A91" s="156"/>
+      <c r="B91" s="148"/>
+      <c r="C91" s="151"/>
       <c r="D91" s="65"/>
       <c r="E91" s="58"/>
       <c r="F91" s="59"/>
@@ -25731,9 +25731,9 @@
       <c r="J91" s="63"/>
     </row>
     <row r="92" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="142"/>
-      <c r="B92" s="144"/>
-      <c r="C92" s="147"/>
+      <c r="A92" s="156"/>
+      <c r="B92" s="148"/>
+      <c r="C92" s="151"/>
       <c r="D92" s="65" t="s">
         <v>293</v>
       </c>
@@ -25745,8 +25745,8 @@
       <c r="J92" s="63"/>
     </row>
     <row r="93" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="142"/>
-      <c r="B93" s="145"/>
+      <c r="A93" s="156"/>
+      <c r="B93" s="149"/>
       <c r="C93" s="66" t="s">
         <v>160</v>
       </c>
@@ -25761,13 +25761,13 @@
       <c r="J93" s="63"/>
     </row>
     <row r="94" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="141" t="s">
+      <c r="A94" s="155" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="143" t="s">
+      <c r="B94" s="147" t="s">
         <v>296</v>
       </c>
-      <c r="C94" s="146" t="s">
+      <c r="C94" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="65" t="s">
@@ -25783,9 +25783,9 @@
       <c r="J94" s="63"/>
     </row>
     <row r="95" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="142"/>
-      <c r="B95" s="144"/>
-      <c r="C95" s="147"/>
+      <c r="A95" s="156"/>
+      <c r="B95" s="148"/>
+      <c r="C95" s="151"/>
       <c r="D95" s="65" t="s">
         <v>299</v>
       </c>
@@ -25797,9 +25797,9 @@
       <c r="J95" s="63"/>
     </row>
     <row r="96" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="142"/>
-      <c r="B96" s="144"/>
-      <c r="C96" s="147"/>
+      <c r="A96" s="156"/>
+      <c r="B96" s="148"/>
+      <c r="C96" s="151"/>
       <c r="D96" s="65"/>
       <c r="E96" s="58"/>
       <c r="F96" s="59"/>
@@ -25809,8 +25809,8 @@
       <c r="J96" s="63"/>
     </row>
     <row r="97" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="142"/>
-      <c r="B97" s="145"/>
+      <c r="A97" s="156"/>
+      <c r="B97" s="149"/>
       <c r="C97" s="66" t="s">
         <v>160</v>
       </c>
@@ -25827,11 +25827,11 @@
       <c r="J97" s="63"/>
     </row>
     <row r="98" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="142"/>
-      <c r="B98" s="143" t="s">
+      <c r="A98" s="156"/>
+      <c r="B98" s="147" t="s">
         <v>301</v>
       </c>
-      <c r="C98" s="146" t="s">
+      <c r="C98" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D98" s="65" t="s">
@@ -25845,9 +25845,9 @@
       <c r="J98" s="63"/>
     </row>
     <row r="99" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="142"/>
-      <c r="B99" s="144"/>
-      <c r="C99" s="147"/>
+      <c r="A99" s="156"/>
+      <c r="B99" s="148"/>
+      <c r="C99" s="151"/>
       <c r="D99" s="65" t="s">
         <v>303</v>
       </c>
@@ -25859,9 +25859,9 @@
       <c r="J99" s="63"/>
     </row>
     <row r="100" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="142"/>
-      <c r="B100" s="144"/>
-      <c r="C100" s="147"/>
+      <c r="A100" s="156"/>
+      <c r="B100" s="148"/>
+      <c r="C100" s="151"/>
       <c r="D100" s="65" t="s">
         <v>304</v>
       </c>
@@ -25873,9 +25873,9 @@
       <c r="J100" s="63"/>
     </row>
     <row r="101" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="142"/>
-      <c r="B101" s="144"/>
-      <c r="C101" s="148"/>
+      <c r="A101" s="156"/>
+      <c r="B101" s="148"/>
+      <c r="C101" s="157"/>
       <c r="D101" s="65" t="s">
         <v>305</v>
       </c>
@@ -25887,9 +25887,9 @@
       <c r="J101" s="63"/>
     </row>
     <row r="102" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="142"/>
-      <c r="B102" s="144"/>
-      <c r="C102" s="154" t="s">
+      <c r="A102" s="156"/>
+      <c r="B102" s="148"/>
+      <c r="C102" s="158" t="s">
         <v>160</v>
       </c>
       <c r="D102" s="65" t="s">
@@ -25909,9 +25909,9 @@
       <c r="J102" s="63"/>
     </row>
     <row r="103" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="142"/>
-      <c r="B103" s="145"/>
-      <c r="C103" s="155"/>
+      <c r="A103" s="156"/>
+      <c r="B103" s="149"/>
+      <c r="C103" s="159"/>
       <c r="D103" s="65" t="s">
         <v>300</v>
       </c>
@@ -25923,11 +25923,11 @@
       <c r="J103" s="63"/>
     </row>
     <row r="104" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="142"/>
-      <c r="B104" s="143" t="s">
+      <c r="A104" s="156"/>
+      <c r="B104" s="147" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="146" t="s">
+      <c r="C104" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D104" s="65" t="s">
@@ -25943,9 +25943,9 @@
       <c r="J104" s="63"/>
     </row>
     <row r="105" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="142"/>
-      <c r="B105" s="144"/>
-      <c r="C105" s="147"/>
+      <c r="A105" s="156"/>
+      <c r="B105" s="148"/>
+      <c r="C105" s="151"/>
       <c r="D105" s="65" t="s">
         <v>313</v>
       </c>
@@ -25957,9 +25957,9 @@
       <c r="J105" s="63"/>
     </row>
     <row r="106" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="142"/>
-      <c r="B106" s="144"/>
-      <c r="C106" s="147"/>
+      <c r="A106" s="156"/>
+      <c r="B106" s="148"/>
+      <c r="C106" s="151"/>
       <c r="D106" s="65" t="s">
         <v>314</v>
       </c>
@@ -25971,9 +25971,9 @@
       <c r="J106" s="63"/>
     </row>
     <row r="107" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="142"/>
-      <c r="B107" s="144"/>
-      <c r="C107" s="147"/>
+      <c r="A107" s="156"/>
+      <c r="B107" s="148"/>
+      <c r="C107" s="151"/>
       <c r="D107" s="65" t="s">
         <v>187</v>
       </c>
@@ -25985,9 +25985,9 @@
       <c r="J107" s="63"/>
     </row>
     <row r="108" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="142"/>
-      <c r="B108" s="144"/>
-      <c r="C108" s="148"/>
+      <c r="A108" s="156"/>
+      <c r="B108" s="148"/>
+      <c r="C108" s="157"/>
       <c r="D108" s="65" t="s">
         <v>184</v>
       </c>
@@ -25999,8 +25999,8 @@
       <c r="J108" s="63"/>
     </row>
     <row r="109" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="142"/>
-      <c r="B109" s="145"/>
+      <c r="A109" s="156"/>
+      <c r="B109" s="149"/>
       <c r="C109" s="66" t="s">
         <v>160</v>
       </c>
@@ -26015,11 +26015,11 @@
       <c r="J109" s="63"/>
     </row>
     <row r="110" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="142"/>
-      <c r="B110" s="143" t="s">
+      <c r="A110" s="156"/>
+      <c r="B110" s="147" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="146" t="s">
+      <c r="C110" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D110" s="65" t="s">
@@ -26033,9 +26033,9 @@
       <c r="J110" s="63"/>
     </row>
     <row r="111" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="142"/>
-      <c r="B111" s="144"/>
-      <c r="C111" s="147"/>
+      <c r="A111" s="156"/>
+      <c r="B111" s="148"/>
+      <c r="C111" s="151"/>
       <c r="D111" s="65"/>
       <c r="E111" s="58"/>
       <c r="F111" s="59"/>
@@ -26045,9 +26045,9 @@
       <c r="J111" s="63"/>
     </row>
     <row r="112" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="142"/>
-      <c r="B112" s="145"/>
-      <c r="C112" s="147"/>
+      <c r="A112" s="156"/>
+      <c r="B112" s="149"/>
+      <c r="C112" s="151"/>
       <c r="D112" s="65"/>
       <c r="E112" s="58"/>
       <c r="F112" s="59"/>
@@ -26057,11 +26057,11 @@
       <c r="J112" s="63"/>
     </row>
     <row r="113" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="142"/>
-      <c r="B113" s="143" t="s">
+      <c r="A113" s="156"/>
+      <c r="B113" s="147" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="146" t="s">
+      <c r="C113" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D113" s="65" t="s">
@@ -26075,9 +26075,9 @@
       <c r="J113" s="63"/>
     </row>
     <row r="114" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="142"/>
-      <c r="B114" s="144"/>
-      <c r="C114" s="147"/>
+      <c r="A114" s="156"/>
+      <c r="B114" s="148"/>
+      <c r="C114" s="151"/>
       <c r="D114" s="65"/>
       <c r="E114" s="58"/>
       <c r="F114" s="59"/>
@@ -26087,9 +26087,9 @@
       <c r="J114" s="63"/>
     </row>
     <row r="115" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="142"/>
-      <c r="B115" s="144"/>
-      <c r="C115" s="147"/>
+      <c r="A115" s="156"/>
+      <c r="B115" s="148"/>
+      <c r="C115" s="151"/>
       <c r="D115" s="65"/>
       <c r="E115" s="58"/>
       <c r="F115" s="59"/>
@@ -26099,8 +26099,8 @@
       <c r="J115" s="63"/>
     </row>
     <row r="116" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="142"/>
-      <c r="B116" s="145"/>
+      <c r="A116" s="156"/>
+      <c r="B116" s="149"/>
       <c r="C116" s="66" t="s">
         <v>160</v>
       </c>
@@ -26117,13 +26117,13 @@
       <c r="J116" s="63"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="157" t="s">
+      <c r="A117" s="152" t="s">
         <v>321</v>
       </c>
-      <c r="B117" s="143" t="s">
+      <c r="B117" s="147" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="160"/>
+      <c r="C117" s="142"/>
       <c r="D117" s="65" t="s">
         <v>323</v>
       </c>
@@ -26135,9 +26135,9 @@
       <c r="J117" s="63"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="158"/>
-      <c r="B118" s="145"/>
-      <c r="C118" s="161"/>
+      <c r="A118" s="153"/>
+      <c r="B118" s="149"/>
+      <c r="C118" s="144"/>
       <c r="D118" s="65" t="s">
         <v>324</v>
       </c>
@@ -26149,11 +26149,11 @@
       <c r="J118" s="63"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="158"/>
-      <c r="B119" s="143" t="s">
+      <c r="A119" s="153"/>
+      <c r="B119" s="147" t="s">
         <v>325</v>
       </c>
-      <c r="C119" s="160"/>
+      <c r="C119" s="142"/>
       <c r="D119" s="65" t="s">
         <v>326</v>
       </c>
@@ -26165,9 +26165,9 @@
       <c r="J119" s="63"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="158"/>
-      <c r="B120" s="145"/>
-      <c r="C120" s="161"/>
+      <c r="A120" s="153"/>
+      <c r="B120" s="149"/>
+      <c r="C120" s="144"/>
       <c r="D120" s="65" t="s">
         <v>327</v>
       </c>
@@ -26179,11 +26179,11 @@
       <c r="J120" s="63"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="158"/>
-      <c r="B121" s="143" t="s">
+      <c r="A121" s="153"/>
+      <c r="B121" s="147" t="s">
         <v>328</v>
       </c>
-      <c r="C121" s="160"/>
+      <c r="C121" s="142"/>
       <c r="D121" s="65" t="s">
         <v>329</v>
       </c>
@@ -26195,9 +26195,9 @@
       <c r="J121" s="63"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="158"/>
-      <c r="B122" s="144"/>
-      <c r="C122" s="162"/>
+      <c r="A122" s="153"/>
+      <c r="B122" s="148"/>
+      <c r="C122" s="143"/>
       <c r="D122" s="65" t="s">
         <v>330</v>
       </c>
@@ -26209,9 +26209,9 @@
       <c r="J122" s="63"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="158"/>
-      <c r="B123" s="144"/>
-      <c r="C123" s="162"/>
+      <c r="A123" s="153"/>
+      <c r="B123" s="148"/>
+      <c r="C123" s="143"/>
       <c r="D123" s="65" t="s">
         <v>331</v>
       </c>
@@ -26223,9 +26223,9 @@
       <c r="J123" s="63"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="158"/>
-      <c r="B124" s="144"/>
-      <c r="C124" s="162"/>
+      <c r="A124" s="153"/>
+      <c r="B124" s="148"/>
+      <c r="C124" s="143"/>
       <c r="D124" s="65" t="s">
         <v>332</v>
       </c>
@@ -26237,9 +26237,9 @@
       <c r="J124" s="63"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="158"/>
-      <c r="B125" s="145"/>
-      <c r="C125" s="161"/>
+      <c r="A125" s="153"/>
+      <c r="B125" s="149"/>
+      <c r="C125" s="144"/>
       <c r="D125" s="65" t="s">
         <v>333</v>
       </c>
@@ -26251,7 +26251,7 @@
       <c r="J125" s="63"/>
     </row>
     <row r="126" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A126" s="158"/>
+      <c r="A126" s="153"/>
       <c r="B126" s="74" t="s">
         <v>334</v>
       </c>
@@ -26267,11 +26267,11 @@
       <c r="J126" s="63"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="158"/>
-      <c r="B127" s="143" t="s">
+      <c r="A127" s="153"/>
+      <c r="B127" s="147" t="s">
         <v>336</v>
       </c>
-      <c r="C127" s="160"/>
+      <c r="C127" s="142"/>
       <c r="D127" s="65" t="s">
         <v>337</v>
       </c>
@@ -26285,9 +26285,9 @@
       <c r="J127" s="63"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="158"/>
-      <c r="B128" s="144"/>
-      <c r="C128" s="162"/>
+      <c r="A128" s="153"/>
+      <c r="B128" s="148"/>
+      <c r="C128" s="143"/>
       <c r="D128" s="65" t="s">
         <v>247</v>
       </c>
@@ -26299,9 +26299,9 @@
       <c r="J128" s="63"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="158"/>
-      <c r="B129" s="144"/>
-      <c r="C129" s="162"/>
+      <c r="A129" s="153"/>
+      <c r="B129" s="148"/>
+      <c r="C129" s="143"/>
       <c r="D129" s="65" t="s">
         <v>339</v>
       </c>
@@ -26313,9 +26313,9 @@
       <c r="J129" s="63"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="158"/>
-      <c r="B130" s="145"/>
-      <c r="C130" s="161"/>
+      <c r="A130" s="153"/>
+      <c r="B130" s="149"/>
+      <c r="C130" s="144"/>
       <c r="D130" s="65" t="s">
         <v>340</v>
       </c>
@@ -26327,11 +26327,11 @@
       <c r="J130" s="63"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="158"/>
-      <c r="B131" s="163" t="s">
+      <c r="A131" s="153"/>
+      <c r="B131" s="145" t="s">
         <v>341</v>
       </c>
-      <c r="C131" s="160"/>
+      <c r="C131" s="142"/>
       <c r="D131" s="65" t="s">
         <v>342</v>
       </c>
@@ -26343,9 +26343,9 @@
       <c r="J131" s="63"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="158"/>
-      <c r="B132" s="164"/>
-      <c r="C132" s="161"/>
+      <c r="A132" s="153"/>
+      <c r="B132" s="146"/>
+      <c r="C132" s="144"/>
       <c r="D132" s="65" t="s">
         <v>343</v>
       </c>
@@ -26357,7 +26357,7 @@
       <c r="J132" s="63"/>
     </row>
     <row r="133" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A133" s="158"/>
+      <c r="A133" s="153"/>
       <c r="B133" s="74" t="s">
         <v>344</v>
       </c>
@@ -26373,11 +26373,11 @@
       <c r="J133" s="63"/>
     </row>
     <row r="134" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="158"/>
-      <c r="B134" s="143" t="s">
+      <c r="A134" s="153"/>
+      <c r="B134" s="147" t="s">
         <v>346</v>
       </c>
-      <c r="C134" s="160"/>
+      <c r="C134" s="142"/>
       <c r="D134" s="65" t="s">
         <v>347</v>
       </c>
@@ -26389,9 +26389,9 @@
       <c r="J134" s="63"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="158"/>
-      <c r="B135" s="144"/>
-      <c r="C135" s="162"/>
+      <c r="A135" s="153"/>
+      <c r="B135" s="148"/>
+      <c r="C135" s="143"/>
       <c r="D135" s="65" t="s">
         <v>348</v>
       </c>
@@ -26403,9 +26403,9 @@
       <c r="J135" s="63"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="158"/>
-      <c r="B136" s="145"/>
-      <c r="C136" s="161"/>
+      <c r="A136" s="153"/>
+      <c r="B136" s="149"/>
+      <c r="C136" s="144"/>
       <c r="D136" s="65" t="s">
         <v>349</v>
       </c>
@@ -26417,7 +26417,7 @@
       <c r="J136" s="63"/>
     </row>
     <row r="137" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A137" s="158"/>
+      <c r="A137" s="153"/>
       <c r="B137" s="74" t="s">
         <v>350</v>
       </c>
@@ -26433,7 +26433,7 @@
       <c r="J137" s="63"/>
     </row>
     <row r="138" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A138" s="158"/>
+      <c r="A138" s="153"/>
       <c r="B138" s="74" t="s">
         <v>352</v>
       </c>
@@ -26449,7 +26449,7 @@
       <c r="J138" s="63"/>
     </row>
     <row r="139" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A139" s="158"/>
+      <c r="A139" s="153"/>
       <c r="B139" s="74" t="s">
         <v>354</v>
       </c>
@@ -26465,7 +26465,7 @@
       <c r="J139" s="63"/>
     </row>
     <row r="140" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A140" s="159"/>
+      <c r="A140" s="154"/>
       <c r="B140" s="74" t="s">
         <v>356</v>
       </c>
@@ -26482,11 +26482,64 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A93"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B33:B46"/>
+    <mergeCell ref="C33:C44"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C92"/>
     <mergeCell ref="B113:B116"/>
     <mergeCell ref="C113:C115"/>
     <mergeCell ref="A117:A140"/>
@@ -26503,64 +26556,11 @@
     <mergeCell ref="B98:B103"/>
     <mergeCell ref="C98:C101"/>
     <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B33:B46"/>
-    <mergeCell ref="C33:C44"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A93"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C134:C136"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
